--- a/Tests/Validation/Mungbean/ObservedData.xlsx
+++ b/Tests/Validation/Mungbean/ObservedData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Tests\UnderReview\Mungbean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Tests\Validation\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988AE31C-75DA-40D9-BEE6-7DF199F380AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887D97EB-595A-4D0F-80D2-3626FE18339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11626" activeTab="2" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
   </bookViews>
   <sheets>
     <sheet name="PlantBiomassObserved" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5907" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="217">
   <si>
     <t>Location</t>
   </si>
@@ -690,6 +690,12 @@
   <si>
     <t>Mungbean.Nodule.NFixed</t>
   </si>
+  <si>
+    <t>Mungbean.Leaf.LAITotal</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.LAITotalError</t>
+  </si>
 </sst>
 </file>
 
@@ -1184,18 +1190,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D7DBC0-8FFD-4004-98F0-2F6AD6B427E8}">
   <dimension ref="A1:W451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.29296875" customWidth="1"/>
+    <col min="3" max="3" width="25.87890625" customWidth="1"/>
+    <col min="4" max="4" width="9.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75">
+    <row r="1" spans="1:23" ht="32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12391,13 +12397,13 @@
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.29296875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="45.75">
+    <row r="1" spans="1:29" ht="32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18589,18 +18595,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08346024-0075-43D0-8671-0F4A08F4C0D2}">
-  <dimension ref="A1:H700"/>
+  <dimension ref="A1:J700"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD548"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="G416" sqref="G416:H547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
+    <col min="2" max="2" width="39.52734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5">
+    <row r="1" spans="1:10" ht="21.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18619,14 +18628,20 @@
       <c r="F1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -18640,7 +18655,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18654,7 +18669,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18668,7 +18683,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -18681,9 +18696,9 @@
       <c r="E5">
         <v>5.87</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18696,9 +18711,9 @@
       <c r="E6">
         <v>5.8</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -18711,9 +18726,9 @@
       <c r="E7">
         <v>5.44</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -18729,9 +18744,9 @@
       <c r="E8">
         <v>3.75</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -18741,11 +18756,11 @@
       <c r="C9" s="5">
         <v>29262</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>66.064981949458399</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -18755,11 +18770,11 @@
       <c r="C10" s="5">
         <v>29270</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>91.046931407942196</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -18769,11 +18784,11 @@
       <c r="C11" s="5">
         <v>29279</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>81.083032490974702</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -18783,11 +18798,11 @@
       <c r="C12" s="5">
         <v>29290</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>77.617328519855604</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -18797,11 +18812,11 @@
       <c r="C13" s="5">
         <v>29262</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>84.038004750593899</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -18811,11 +18826,11 @@
       <c r="C14" s="5">
         <v>29270</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>96.152019002375397</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -18825,11 +18840,11 @@
       <c r="C15" s="5">
         <v>29279</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>88.171021377672304</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -18839,11 +18854,11 @@
       <c r="C16" s="5">
         <v>29290</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>79.762470308788707</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -18853,11 +18868,11 @@
       <c r="C17" s="5">
         <v>29262</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>95.107913669064899</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -18867,11 +18882,11 @@
       <c r="C18" s="5">
         <v>29270</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>98.561151079136806</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -18881,11 +18896,11 @@
       <c r="C19" s="5">
         <v>29279</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>97.410071942446095</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -18895,11 +18910,11 @@
       <c r="C20" s="5">
         <v>29290</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>91.654676258992893</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -18912,11 +18927,11 @@
       <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>23.473568281938299</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -18926,11 +18941,11 @@
       <c r="C22" s="5">
         <v>35423</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>50.451541850220202</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -18940,11 +18955,11 @@
       <c r="C23" s="5">
         <v>35433</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>91.991189427312705</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -18954,11 +18969,11 @@
       <c r="C24" s="5">
         <v>35438</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>92.394273127753294</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -18972,7 +18987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -18982,11 +18997,11 @@
       <c r="C26" s="5">
         <v>35445</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>92.017621145374406</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -19000,7 +19015,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -19010,11 +19025,11 @@
       <c r="C28" s="5">
         <v>35453</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>89.339207048458107</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -19024,11 +19039,11 @@
       <c r="C29" s="5">
         <v>35457</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>87.156387665198196</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -19042,7 +19057,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -19056,7 +19071,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -19070,7 +19085,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -19083,11 +19098,11 @@
       <c r="E33">
         <v>1.5</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>69.942731277532999</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -19101,7 +19116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -19111,11 +19126,11 @@
       <c r="C35" s="5">
         <v>35478</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>72.317180616740103</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -19129,7 +19144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -19146,7 +19161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -19159,11 +19174,11 @@
       <c r="E38">
         <v>0.5</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>26.369609321195998</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -19173,11 +19188,11 @@
       <c r="C39" s="5">
         <v>35422</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>49.313008357062699</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -19187,11 +19202,11 @@
       <c r="C40" s="5">
         <v>35433</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>85.907644201238099</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -19201,11 +19216,11 @@
       <c r="C41" s="5">
         <v>35438</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>77.209596664617706</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -19219,7 +19234,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -19229,11 +19244,11 @@
       <c r="C43" s="5">
         <v>35447</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>62.736426750049397</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -19246,11 +19261,11 @@
       <c r="E44">
         <v>3.5</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>57.610512405306501</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -19260,11 +19275,11 @@
       <c r="C45" s="5">
         <v>35457</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>80.180170119305203</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -19278,7 +19293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -19292,7 +19307,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -19306,7 +19321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -19316,11 +19331,11 @@
       <c r="C49" s="5">
         <v>35470</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>82.072700876652505</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -19334,7 +19349,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -19348,7 +19363,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -19358,11 +19373,11 @@
       <c r="C52" s="5">
         <v>35478</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>79.425242429316796</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -19376,7 +19391,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -19393,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -19407,7 +19422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -19417,11 +19432,11 @@
       <c r="C56" s="5">
         <v>35419</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>30.097669886523999</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -19431,11 +19446,11 @@
       <c r="C57" s="5">
         <v>35424</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>53.121369987032899</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -19445,11 +19460,11 @@
       <c r="C58" s="5">
         <v>35433</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>80.019334494425493</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -19462,11 +19477,11 @@
       <c r="E59">
         <v>1.89</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>55.973668259971497</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -19476,11 +19491,11 @@
       <c r="C60" s="5">
         <v>35446</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>52.625117963432501</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -19494,7 +19509,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -19504,11 +19519,11 @@
       <c r="C62" s="5">
         <v>35454</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>46.0698036628118</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -19521,11 +19536,11 @@
       <c r="E63">
         <v>1.99</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>83.088915657103797</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -19539,7 +19554,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -19553,7 +19568,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -19567,7 +19582,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -19577,11 +19592,11 @@
       <c r="C67" s="5">
         <v>35473</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>40.080713841809199</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -19595,7 +19610,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -19605,11 +19620,11 @@
       <c r="C69" s="5">
         <v>35480</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>51.086644621250301</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -19623,7 +19638,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -19637,7 +19652,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -19651,7 +19666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -19665,7 +19680,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -19675,11 +19690,11 @@
       <c r="C74" s="5">
         <v>35419</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>27.8017621145374</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -19689,11 +19704,11 @@
       <c r="C75" s="5">
         <v>35423</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>57.5308370044052</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -19703,11 +19718,11 @@
       <c r="C76" s="5">
         <v>35433</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>96.484581497797294</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -19717,11 +19732,11 @@
       <c r="C77" s="5">
         <v>35438</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>96.832599118942696</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -19735,7 +19750,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -19745,11 +19760,11 @@
       <c r="C79" s="5">
         <v>35446</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>97.299559471365598</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -19763,7 +19778,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -19773,11 +19788,11 @@
       <c r="C81" s="5">
         <v>35453</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>96.922907488986795</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -19787,11 +19802,11 @@
       <c r="C82" s="5">
         <v>35456</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>99.682819383259897</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -19805,7 +19820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -19819,7 +19834,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -19833,7 +19848,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -19843,11 +19858,11 @@
       <c r="C86" s="5">
         <v>35471</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>90.951541850220195</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -19861,7 +19876,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -19875,7 +19890,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -19885,11 +19900,11 @@
       <c r="C89" s="5">
         <v>35478</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>95.013215859030794</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -19903,7 +19918,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -19913,11 +19928,11 @@
       <c r="C91" s="5">
         <v>35500</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>81.466960352422902</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -19927,11 +19942,11 @@
       <c r="C92" s="5">
         <v>35507</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>79.852422907488901</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -19948,7 +19963,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -19962,7 +19977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -19972,11 +19987,11 @@
       <c r="C95" s="5">
         <v>35419</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>29.540454520071801</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -19986,11 +20001,11 @@
       <c r="C96" s="5">
         <v>35424</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>52.192752247471603</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -20000,11 +20015,11 @@
       <c r="C97" s="5">
         <v>35433</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>92.194241256722293</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -20014,11 +20029,11 @@
       <c r="C98" s="5">
         <v>35439</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>82.4576097678991</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -20032,7 +20047,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -20042,11 +20057,11 @@
       <c r="C100" s="5">
         <v>35446</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>72.4849703128763</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -20056,11 +20071,11 @@
       <c r="C101" s="5">
         <v>35453</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>78.519924805031195</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -20074,7 +20089,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -20084,11 +20099,11 @@
       <c r="C103" s="5">
         <v>35457</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>90.593556312467001</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -20102,7 +20117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -20116,7 +20131,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -20130,7 +20145,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -20140,11 +20155,11 @@
       <c r="C107" s="5">
         <v>35471</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>73.390287937162</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -20158,7 +20173,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -20172,7 +20187,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -20182,11 +20197,11 @@
       <c r="C110" s="5">
         <v>35478</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>95.086641725760003</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -20200,7 +20215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -20210,11 +20225,11 @@
       <c r="C112" s="5">
         <v>35501</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>58.909672976341298</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -20224,11 +20239,11 @@
       <c r="C113" s="5">
         <v>35506</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>54.712155899266399</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -20238,11 +20253,11 @@
       <c r="C114" s="5">
         <v>35514</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>43.036089861706103</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -20256,7 +20271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -20270,7 +20285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -20283,11 +20298,11 @@
       <c r="E117">
         <v>0.5</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>28.519606865279101</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -20297,11 +20312,11 @@
       <c r="C118" s="5">
         <v>35424</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>53.121369987032899</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -20311,11 +20326,11 @@
       <c r="C119" s="5">
         <v>35433</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>79.220175391484702</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -20325,11 +20340,11 @@
       <c r="C120" s="5">
         <v>35439</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>59.160177079416599</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -20343,7 +20358,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -20353,11 +20368,11 @@
       <c r="C122" s="5">
         <v>35446</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <v>56.620913478136799</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -20370,11 +20385,11 @@
       <c r="E123">
         <v>1.8</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>61.2335714340511</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -20387,11 +20402,11 @@
       <c r="E124">
         <v>1.5</v>
       </c>
-      <c r="G124">
+      <c r="I124">
         <v>80.281731204492502</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -20405,7 +20420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -20419,7 +20434,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -20432,11 +20447,11 @@
       <c r="E127">
         <v>1.8</v>
       </c>
-      <c r="G127">
+      <c r="I127">
         <v>53.646163407166902</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -20450,7 +20465,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -20460,11 +20475,11 @@
       <c r="C129" s="5">
         <v>35478</v>
       </c>
-      <c r="G129">
+      <c r="I129">
         <v>81.024728204576803</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -20478,7 +20493,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -20488,11 +20503,11 @@
       <c r="C131" s="5">
         <v>35501</v>
       </c>
-      <c r="G131">
+      <c r="I131">
         <v>60.600136569047301</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -20506,7 +20521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -20516,11 +20531,11 @@
       <c r="C133" s="5">
         <v>35472</v>
       </c>
-      <c r="G133">
+      <c r="I133">
         <v>90.399999999999906</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -20530,11 +20545,11 @@
       <c r="C134" s="5">
         <v>35478</v>
       </c>
-      <c r="G134">
+      <c r="I134">
         <v>103.6</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -20548,7 +20563,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -20562,7 +20577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -20572,11 +20587,11 @@
       <c r="C137" s="5">
         <v>35501</v>
       </c>
-      <c r="G137">
+      <c r="I137">
         <v>104.399999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -20590,7 +20605,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -20600,11 +20615,11 @@
       <c r="C139" s="5">
         <v>35507</v>
       </c>
-      <c r="G139">
+      <c r="I139">
         <v>97.999999999999901</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -20618,7 +20633,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -20628,11 +20643,11 @@
       <c r="C141" s="5">
         <v>35514</v>
       </c>
-      <c r="G141">
+      <c r="I141">
         <v>89.599999999999895</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -20642,11 +20657,11 @@
       <c r="C142" s="5">
         <v>35522</v>
       </c>
-      <c r="G142">
+      <c r="I142">
         <v>94.799999999999898</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -20656,11 +20671,11 @@
       <c r="C143" s="5">
         <v>35525</v>
       </c>
-      <c r="G143">
+      <c r="I143">
         <v>95.599999999999895</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -20670,11 +20685,11 @@
       <c r="C144" s="5">
         <v>35531</v>
       </c>
-      <c r="G144">
+      <c r="I144">
         <v>88.399999999999906</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -20684,11 +20699,11 @@
       <c r="C145" s="5">
         <v>35539</v>
       </c>
-      <c r="G145">
+      <c r="I145">
         <v>60.799999999999898</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -20705,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -20715,11 +20730,11 @@
       <c r="C147" s="5">
         <v>35472</v>
       </c>
-      <c r="G147">
+      <c r="I147">
         <v>96.399999999999906</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -20729,11 +20744,11 @@
       <c r="C148" s="5">
         <v>35478</v>
       </c>
-      <c r="G148">
+      <c r="I148">
         <v>103.6</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -20747,7 +20762,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -20760,11 +20775,11 @@
       <c r="E150">
         <v>5</v>
       </c>
-      <c r="G150">
+      <c r="I150">
         <v>104.399999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -20778,7 +20793,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -20788,11 +20803,11 @@
       <c r="C152" s="5">
         <v>35507</v>
       </c>
-      <c r="G152">
+      <c r="I152">
         <v>104.399999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -20806,7 +20821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -20816,11 +20831,11 @@
       <c r="C154" s="5">
         <v>35513</v>
       </c>
-      <c r="G154">
+      <c r="I154">
         <v>97.599999999999895</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -20830,11 +20845,11 @@
       <c r="C155" s="5">
         <v>35521</v>
       </c>
-      <c r="G155">
+      <c r="I155">
         <v>101.99999999999901</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -20844,11 +20859,11 @@
       <c r="C156" s="5">
         <v>35524</v>
       </c>
-      <c r="G156">
+      <c r="I156">
         <v>103.19999999999899</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -20858,11 +20873,11 @@
       <c r="C157" s="5">
         <v>35531</v>
       </c>
-      <c r="G157">
+      <c r="I157">
         <v>94.399999999999906</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -20872,11 +20887,11 @@
       <c r="C158" s="5">
         <v>35538</v>
       </c>
-      <c r="G158">
+      <c r="I158">
         <v>83.599999999999895</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -20893,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -20903,11 +20918,11 @@
       <c r="C160" s="5">
         <v>35472</v>
       </c>
-      <c r="G160">
+      <c r="I160">
         <v>72.420078130417295</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -20917,11 +20932,11 @@
       <c r="C161" s="5">
         <v>35479</v>
       </c>
-      <c r="G161">
+      <c r="I161">
         <v>99.642056355608801</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -20935,7 +20950,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -20949,7 +20964,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -20959,11 +20974,11 @@
       <c r="C164" s="5">
         <v>35501</v>
       </c>
-      <c r="G164">
+      <c r="I164">
         <v>90.236587226369906</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -20977,7 +20992,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -20987,11 +21002,11 @@
       <c r="C166" s="5">
         <v>35507</v>
       </c>
-      <c r="G166">
+      <c r="I166">
         <v>73.349321559834095</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -21005,7 +21020,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -21015,11 +21030,11 @@
       <c r="C168" s="5">
         <v>35515</v>
       </c>
-      <c r="G168">
+      <c r="I168">
         <v>61.551397332469797</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -21029,11 +21044,11 @@
       <c r="C169" s="5">
         <v>35523</v>
       </c>
-      <c r="G169">
+      <c r="I169">
         <v>51.204895864634999</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -21043,11 +21058,11 @@
       <c r="C170" s="5">
         <v>35527</v>
       </c>
-      <c r="G170">
+      <c r="I170">
         <v>55.602852453710703</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -21064,7 +21079,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -21074,11 +21089,11 @@
       <c r="C172" s="5">
         <v>35472</v>
       </c>
-      <c r="G172">
+      <c r="I172">
         <v>80.736113358451803</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -21088,11 +21103,11 @@
       <c r="C173" s="5">
         <v>35479</v>
       </c>
-      <c r="G173">
+      <c r="I173">
         <v>101.080996740713</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -21106,7 +21121,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -21120,7 +21135,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -21130,11 +21145,11 @@
       <c r="C176" s="5">
         <v>35501</v>
       </c>
-      <c r="G176">
+      <c r="I176">
         <v>94.939668523612298</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -21148,7 +21163,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -21158,11 +21173,11 @@
       <c r="C178" s="5">
         <v>35507</v>
       </c>
-      <c r="G178">
+      <c r="I178">
         <v>82.743001779893802</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -21176,7 +21191,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -21186,11 +21201,11 @@
       <c r="C180" s="5">
         <v>35514</v>
       </c>
-      <c r="G180">
+      <c r="I180">
         <v>48.8935762002722</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -21200,11 +21215,11 @@
       <c r="C181" s="5">
         <v>35524</v>
       </c>
-      <c r="G181">
+      <c r="I181">
         <v>49.404660086451401</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -21214,11 +21229,11 @@
       <c r="C182" s="5">
         <v>35528</v>
       </c>
-      <c r="G182">
+      <c r="I182">
         <v>42.602459490071297</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -21228,11 +21243,11 @@
       <c r="C183" s="5">
         <v>35533</v>
       </c>
-      <c r="G183">
+      <c r="I183">
         <v>46.670326622130197</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -21246,7 +21261,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -21256,11 +21271,11 @@
       <c r="C185" s="5">
         <v>35473</v>
       </c>
-      <c r="G185">
+      <c r="I185">
         <v>29.416529341115101</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -21270,11 +21285,11 @@
       <c r="C186" s="5">
         <v>35480</v>
       </c>
-      <c r="G186">
+      <c r="I186">
         <v>45.240901600423001</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -21288,7 +21303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -21302,7 +21317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -21312,11 +21327,11 @@
       <c r="C189" s="5">
         <v>35502</v>
       </c>
-      <c r="G189">
+      <c r="I189">
         <v>44.9174650168965</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -21330,7 +21345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -21340,11 +21355,11 @@
       <c r="C191" s="5">
         <v>35508</v>
       </c>
-      <c r="G191">
+      <c r="I191">
         <v>36.979582716530601</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -21354,11 +21369,11 @@
       <c r="C192" s="5">
         <v>35516</v>
       </c>
-      <c r="G192">
+      <c r="I192">
         <v>19.381616065691201</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -21372,7 +21387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -21382,11 +21397,11 @@
       <c r="C194" s="5">
         <v>35525</v>
       </c>
-      <c r="G194">
+      <c r="I194">
         <v>13.0653855822121</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -21396,11 +21411,11 @@
       <c r="C195" s="5">
         <v>35472</v>
       </c>
-      <c r="G195">
+      <c r="I195">
         <v>42.843895762923403</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -21410,11 +21425,11 @@
       <c r="C196" s="5">
         <v>35479</v>
       </c>
-      <c r="G196">
+      <c r="I196">
         <v>62.717649358990897</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -21428,7 +21443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -21442,7 +21457,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -21452,11 +21467,11 @@
       <c r="C199" s="5">
         <v>35503</v>
       </c>
-      <c r="G199">
+      <c r="I199">
         <v>33.696058989468597</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -21470,7 +21485,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -21480,11 +21495,11 @@
       <c r="C201" s="5">
         <v>35509</v>
       </c>
-      <c r="G201">
+      <c r="I201">
         <v>14.818869927099399</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -21498,7 +21513,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -21508,11 +21523,11 @@
       <c r="C203" s="5">
         <v>35516</v>
       </c>
-      <c r="G203">
+      <c r="I203">
         <v>10.9504790101371</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -21526,7 +21541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:9">
       <c r="A205" s="13" t="s">
         <v>4</v>
       </c>
@@ -21541,7 +21556,7 @@
         <v>2.2764235383736402</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:9">
       <c r="A206" s="13" t="s">
         <v>4</v>
       </c>
@@ -21556,7 +21571,7 @@
         <v>2.3899733384117301</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:9">
       <c r="A207" s="13" t="s">
         <v>4</v>
       </c>
@@ -21570,11 +21585,11 @@
       <c r="E207">
         <v>4.2681870119977097</v>
       </c>
-      <c r="G207">
+      <c r="I207">
         <v>87.803191489361694</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:9">
       <c r="A208" s="13" t="s">
         <v>4</v>
       </c>
@@ -21589,7 +21604,7 @@
         <v>6.3527899447724199</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:9">
       <c r="A209" s="13" t="s">
         <v>4</v>
       </c>
@@ -21600,11 +21615,11 @@
         <v>35815</v>
       </c>
       <c r="D209" s="5"/>
-      <c r="G209">
+      <c r="I209">
         <v>66.101063829787194</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:9">
       <c r="A210" s="13" t="s">
         <v>4</v>
       </c>
@@ -21615,11 +21630,11 @@
         <v>35844</v>
       </c>
       <c r="D210" s="5"/>
-      <c r="G210">
+      <c r="I210">
         <v>94.648936170212707</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:9">
       <c r="A211" s="13" t="s">
         <v>4</v>
       </c>
@@ -21634,7 +21649,7 @@
         <v>0.41734819504904702</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:9">
       <c r="A212" s="13" t="s">
         <v>4</v>
       </c>
@@ -21649,7 +21664,7 @@
         <v>2.4365409136877298</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:9">
       <c r="A213" s="13" t="s">
         <v>4</v>
       </c>
@@ -21663,11 +21678,11 @@
       <c r="E213">
         <v>3.4918106670184299</v>
       </c>
-      <c r="G213">
+      <c r="I213">
         <v>91.415513188822104</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:9">
       <c r="A214" s="13" t="s">
         <v>4</v>
       </c>
@@ -21681,11 +21696,11 @@
       <c r="E214">
         <v>4.9392890120036901</v>
       </c>
-      <c r="G214">
+      <c r="I214">
         <v>93.045181509532398</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:9">
       <c r="A215" s="13" t="s">
         <v>4</v>
       </c>
@@ -21696,11 +21711,11 @@
         <v>35815</v>
       </c>
       <c r="D215" s="5"/>
-      <c r="G215">
+      <c r="I215">
         <v>73.567511099503804</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:9">
       <c r="A216" s="13" t="s">
         <v>4</v>
       </c>
@@ -21711,11 +21726,11 @@
         <v>35871</v>
       </c>
       <c r="D216" s="5"/>
-      <c r="G216">
+      <c r="I216">
         <v>67.048837816662299</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:9">
       <c r="A217" s="13" t="s">
         <v>4</v>
       </c>
@@ -21730,7 +21745,7 @@
         <v>1.4764526299984699</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:9">
       <c r="A218" s="13" t="s">
         <v>4</v>
       </c>
@@ -21745,7 +21760,7 @@
         <v>1.7011661078023801</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:9">
       <c r="A219" s="13" t="s">
         <v>4</v>
       </c>
@@ -21760,7 +21775,7 @@
         <v>2.6772934287572898</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:9">
       <c r="A220" s="13" t="s">
         <v>4</v>
       </c>
@@ -21771,11 +21786,11 @@
         <v>35817</v>
       </c>
       <c r="D220" s="5"/>
-      <c r="G220">
+      <c r="I220">
         <v>95.843390142790895</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:9">
       <c r="A221" s="13" t="s">
         <v>4</v>
       </c>
@@ -21786,11 +21801,11 @@
         <v>35814</v>
       </c>
       <c r="D221" s="5"/>
-      <c r="G221">
+      <c r="I221">
         <v>77.440810686319196</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:9">
       <c r="A222" s="13" t="s">
         <v>4</v>
       </c>
@@ -21801,11 +21816,11 @@
         <v>35851</v>
       </c>
       <c r="D222" s="5"/>
-      <c r="G222">
+      <c r="I222">
         <v>55.802855826807303</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:9">
       <c r="A223" s="13" t="s">
         <v>4</v>
       </c>
@@ -21820,7 +21835,7 @@
         <v>0.31846314987621299</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:9">
       <c r="A224" s="13" t="s">
         <v>4</v>
       </c>
@@ -21834,11 +21849,11 @@
       <c r="E224">
         <v>3.1388783088935401</v>
       </c>
-      <c r="G224">
+      <c r="I224">
         <v>87.340425531914903</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:9">
       <c r="A225" s="13" t="s">
         <v>4</v>
       </c>
@@ -21852,11 +21867,11 @@
       <c r="E225">
         <v>3.9349171586364502</v>
       </c>
-      <c r="G225">
+      <c r="I225">
         <v>91.313829787233999</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13" t="s">
         <v>4</v>
       </c>
@@ -21871,7 +21886,7 @@
         <v>6.0611788230813097</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13" t="s">
         <v>4</v>
       </c>
@@ -21882,11 +21897,11 @@
         <v>35815</v>
       </c>
       <c r="D227" s="5"/>
-      <c r="G227">
+      <c r="I227">
         <v>7.5372340425531901</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13" t="s">
         <v>4</v>
       </c>
@@ -21897,11 +21912,11 @@
         <v>35844</v>
       </c>
       <c r="D228" s="5"/>
-      <c r="G228">
+      <c r="I228">
         <v>94.154255319148902</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13" t="s">
         <v>4</v>
       </c>
@@ -21912,11 +21927,11 @@
         <v>35884</v>
       </c>
       <c r="D229" s="5"/>
-      <c r="G229">
+      <c r="I229">
         <v>72.340425531914903</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13" t="s">
         <v>4</v>
       </c>
@@ -21927,11 +21942,11 @@
         <v>35898</v>
       </c>
       <c r="D230" s="5"/>
-      <c r="G230">
+      <c r="I230">
         <v>48.228723404255298</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13" t="s">
         <v>4</v>
       </c>
@@ -21946,7 +21961,7 @@
         <v>0.254001231148063</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13" t="s">
         <v>4</v>
       </c>
@@ -21961,7 +21976,7 @@
         <v>1.5284593061601499</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13" t="s">
         <v>4</v>
       </c>
@@ -21978,7 +21993,7 @@
         <v>3.84895352416128</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13" t="s">
         <v>4</v>
       </c>
@@ -21993,7 +22008,7 @@
         <v>5.9304731126060704</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:9">
       <c r="A235" s="13" t="s">
         <v>4</v>
       </c>
@@ -22004,11 +22019,11 @@
         <v>35815</v>
       </c>
       <c r="D235" s="5"/>
-      <c r="G235">
+      <c r="I235">
         <v>9.8772525463571395</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:9">
       <c r="A236" s="13" t="s">
         <v>4</v>
       </c>
@@ -22019,11 +22034,11 @@
         <v>35843</v>
       </c>
       <c r="D236" s="5"/>
-      <c r="G236">
+      <c r="I236">
         <v>93.029511621833294</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:9">
       <c r="A237" s="13" t="s">
         <v>4</v>
       </c>
@@ -22034,11 +22049,11 @@
         <v>35857</v>
       </c>
       <c r="D237" s="5"/>
-      <c r="G237">
+      <c r="I237">
         <v>89.433272394881101</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:9">
       <c r="A238" s="13" t="s">
         <v>4</v>
       </c>
@@ -22049,11 +22064,11 @@
         <v>35870</v>
       </c>
       <c r="D238" s="5"/>
-      <c r="G238">
+      <c r="I238">
         <v>72.964220423086999</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:9">
       <c r="A239" s="13" t="s">
         <v>4</v>
       </c>
@@ -22064,11 +22079,11 @@
         <v>35884</v>
       </c>
       <c r="D239" s="5"/>
-      <c r="G239">
+      <c r="I239">
         <v>31.3136589187779</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:9">
       <c r="A240" s="13" t="s">
         <v>4</v>
       </c>
@@ -22083,7 +22098,7 @@
         <v>0.299934938191245</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:9">
       <c r="A241" s="13" t="s">
         <v>4</v>
       </c>
@@ -22097,11 +22112,11 @@
       <c r="E241">
         <v>1.9267804414193199</v>
       </c>
-      <c r="G241">
+      <c r="I241">
         <v>63.522800552740101</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:9">
       <c r="A242" s="13" t="s">
         <v>4</v>
       </c>
@@ -22118,7 +22133,7 @@
         <v>2.8742805665381801</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:9">
       <c r="A243" s="13" t="s">
         <v>4</v>
       </c>
@@ -22133,7 +22148,7 @@
         <v>3.2918772834192298</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:9">
       <c r="A244" s="13" t="s">
         <v>4</v>
       </c>
@@ -22144,11 +22159,11 @@
         <v>35830</v>
       </c>
       <c r="D244" s="5"/>
-      <c r="G244">
+      <c r="I244">
         <v>95.865499769690899</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:9">
       <c r="A245" s="13" t="s">
         <v>4</v>
       </c>
@@ -22163,7 +22178,7 @@
         <v>0.26728242239573302</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:9">
       <c r="A246" s="13" t="s">
         <v>4</v>
       </c>
@@ -22178,7 +22193,7 @@
         <v>4.2255760807465199</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:9">
       <c r="A247" s="13" t="s">
         <v>4</v>
       </c>
@@ -22192,11 +22207,11 @@
       <c r="E247">
         <v>4.89663873547895</v>
       </c>
-      <c r="G247">
+      <c r="I247">
         <v>95.095744680850999</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:9">
       <c r="A248" s="13" t="s">
         <v>4</v>
       </c>
@@ -22210,11 +22225,11 @@
       <c r="E248">
         <v>5.7748047990858797</v>
       </c>
-      <c r="G248">
+      <c r="I248">
         <v>96.372340425531902</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:9">
       <c r="A249" s="13" t="s">
         <v>4</v>
       </c>
@@ -22225,11 +22240,11 @@
         <v>35857</v>
       </c>
       <c r="D249" s="5"/>
-      <c r="G249">
+      <c r="I249">
         <v>90.228723404255305</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:9">
       <c r="A250" s="13" t="s">
         <v>4</v>
       </c>
@@ -22240,11 +22255,11 @@
         <v>35871</v>
       </c>
       <c r="D250" s="5"/>
-      <c r="G250">
+      <c r="I250">
         <v>52.122340425531902</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:9">
       <c r="A251" s="13" t="s">
         <v>4</v>
       </c>
@@ -22257,11 +22272,11 @@
       <c r="D251" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G251">
+      <c r="I251">
         <v>33.691489361702097</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:9">
       <c r="A252" s="13" t="s">
         <v>4</v>
       </c>
@@ -22276,7 +22291,7 @@
         <v>3.2144725849712099</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:9">
       <c r="A253" s="13" t="s">
         <v>4</v>
       </c>
@@ -22291,7 +22306,7 @@
         <v>4.7007540781778996</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:9">
       <c r="A254" s="13" t="s">
         <v>4</v>
       </c>
@@ -22306,7 +22321,7 @@
         <v>5.2134393000043904</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:9">
       <c r="A255" s="13" t="s">
         <v>4</v>
       </c>
@@ -22319,11 +22334,11 @@
       <c r="D255" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G255">
+      <c r="I255">
         <v>41.875163227997</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:9">
       <c r="A256" s="13" t="s">
         <v>4</v>
       </c>
@@ -22334,11 +22349,11 @@
         <v>35815</v>
       </c>
       <c r="D256" s="5"/>
-      <c r="G256">
+      <c r="I256">
         <v>95.803081744580695</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:9">
       <c r="A257" s="13" t="s">
         <v>4</v>
       </c>
@@ -22349,11 +22364,11 @@
         <v>35843</v>
       </c>
       <c r="D257" s="5"/>
-      <c r="G257">
+      <c r="I257">
         <v>94.016714546879001</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:9">
       <c r="A258" s="13" t="s">
         <v>4</v>
       </c>
@@ -22364,11 +22379,11 @@
         <v>35857</v>
       </c>
       <c r="D258" s="5"/>
-      <c r="G258">
+      <c r="I258">
         <v>87.4588665447897</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:9">
       <c r="A259" s="13" t="s">
         <v>4</v>
       </c>
@@ -22383,7 +22398,7 @@
         <v>1.02112006406083</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:9">
       <c r="A260" s="13" t="s">
         <v>4</v>
       </c>
@@ -22398,7 +22413,7 @@
         <v>1.02442320204191</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:9">
       <c r="A261" s="13" t="s">
         <v>4</v>
       </c>
@@ -22413,7 +22428,7 @@
         <v>3.88403983784593</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:9">
       <c r="A262" s="13" t="s">
         <v>4</v>
       </c>
@@ -22424,11 +22439,11 @@
         <v>35817</v>
       </c>
       <c r="D262" s="5"/>
-      <c r="G262">
+      <c r="I262">
         <v>99.675725472132299</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:9">
       <c r="A263" s="13" t="s">
         <v>4</v>
       </c>
@@ -22439,11 +22454,11 @@
         <v>35803</v>
       </c>
       <c r="D263" s="5"/>
-      <c r="G263">
+      <c r="I263">
         <v>92.003684937816203</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:9">
       <c r="A264" s="13" t="s">
         <v>4</v>
       </c>
@@ -22454,11 +22469,11 @@
         <v>35826</v>
       </c>
       <c r="D264" s="5"/>
-      <c r="G264">
+      <c r="I264">
         <v>58.529709811146397</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -22472,11 +22487,11 @@
       <c r="E265">
         <v>0.45931789081596902</v>
       </c>
-      <c r="G265">
+      <c r="I265">
         <v>17.735238149336801</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -22488,7 +22503,7 @@
       </c>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -22500,7 +22515,7 @@
       </c>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -22512,7 +22527,7 @@
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -22527,7 +22542,7 @@
         <v>1.7347112827973801</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -22539,7 +22554,7 @@
       </c>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -22551,7 +22566,7 @@
       </c>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -22563,7 +22578,7 @@
       </c>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -22575,7 +22590,7 @@
       </c>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -22587,7 +22602,7 @@
       </c>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -22602,7 +22617,7 @@
         <v>3.24008762688339</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -22614,7 +22629,7 @@
       </c>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -22626,7 +22641,7 @@
       </c>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -22638,7 +22653,7 @@
       </c>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -22650,7 +22665,7 @@
       </c>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -22665,7 +22680,7 @@
         <v>4.0374810848562399</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -22677,7 +22692,7 @@
       </c>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -22689,7 +22704,7 @@
       </c>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -22701,7 +22716,7 @@
       </c>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -22713,7 +22728,7 @@
       </c>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -22724,11 +22739,11 @@
         <v>35877</v>
       </c>
       <c r="D285" s="5"/>
-      <c r="G285">
+      <c r="I285">
         <v>90.086625578687205</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -22740,7 +22755,7 @@
       </c>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -22752,7 +22767,7 @@
       </c>
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -22764,7 +22779,7 @@
       </c>
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -22776,7 +22791,7 @@
       </c>
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -22788,7 +22803,7 @@
       </c>
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -22800,7 +22815,7 @@
       </c>
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -22815,7 +22830,7 @@
         <v>2.6639506460249001</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -22827,7 +22842,7 @@
       </c>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -22839,7 +22854,7 @@
       </c>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -22853,11 +22868,11 @@
       <c r="E295">
         <v>4.5781631940402701</v>
       </c>
-      <c r="G295">
+      <c r="I295">
         <v>105.558237950524</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -22869,7 +22884,7 @@
       </c>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -22881,7 +22896,7 @@
       </c>
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:9">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -22893,7 +22908,7 @@
       </c>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -22905,7 +22920,7 @@
       </c>
       <c r="D299" s="5"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:9">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -22916,11 +22931,11 @@
         <v>35902</v>
       </c>
       <c r="D300" s="5"/>
-      <c r="G300">
+      <c r="I300">
         <v>109.227186230793</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -22932,7 +22947,7 @@
       </c>
       <c r="D301" s="5"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -22944,7 +22959,7 @@
       </c>
       <c r="D302" s="5"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -22956,7 +22971,7 @@
       </c>
       <c r="D303" s="5"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -22968,7 +22983,7 @@
       </c>
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -22980,7 +22995,7 @@
       </c>
       <c r="D305" s="5"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -22992,7 +23007,7 @@
       </c>
       <c r="D306" s="5"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -23003,11 +23018,11 @@
         <v>35917</v>
       </c>
       <c r="D307" s="5"/>
-      <c r="G307">
+      <c r="I307">
         <v>106.07287909341299</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -23019,7 +23034,7 @@
       </c>
       <c r="D308" s="5"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -23031,7 +23046,7 @@
       </c>
       <c r="D309" s="5"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -23046,7 +23061,7 @@
         <v>2.95582586427656</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -23058,7 +23073,7 @@
       </c>
       <c r="D311" s="5"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -23070,7 +23085,7 @@
       </c>
       <c r="D312" s="5"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -23082,7 +23097,7 @@
       </c>
       <c r="D313" s="5"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -23093,11 +23108,11 @@
         <v>35930</v>
       </c>
       <c r="D314" s="5"/>
-      <c r="G314">
+      <c r="I314">
         <v>102.385185605953</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -23109,7 +23124,7 @@
       </c>
       <c r="D315" s="5"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -23121,7 +23136,7 @@
       </c>
       <c r="D316" s="5"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -23136,7 +23151,7 @@
         <v>2.5615178675357901</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -23148,7 +23163,7 @@
       </c>
       <c r="D318" s="5"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -23160,7 +23175,7 @@
       </c>
       <c r="D319" s="5"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -23172,7 +23187,7 @@
       </c>
       <c r="D320" s="5"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -23184,7 +23199,7 @@
       </c>
       <c r="D321" s="5"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -23195,11 +23210,11 @@
         <v>35945</v>
       </c>
       <c r="D322" s="5"/>
-      <c r="G322">
+      <c r="I322">
         <v>86.070038910505801</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -23211,7 +23226,7 @@
       </c>
       <c r="D323" s="5"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -23226,7 +23241,7 @@
         <v>0.94470957979280601</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -23238,7 +23253,7 @@
       </c>
       <c r="D325" s="5"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:9">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -23250,7 +23265,7 @@
       </c>
       <c r="D326" s="5"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -23262,7 +23277,7 @@
       </c>
       <c r="D327" s="5"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -23274,7 +23289,7 @@
       </c>
       <c r="D328" s="5"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -23286,7 +23301,7 @@
       </c>
       <c r="D329" s="5"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -23297,11 +23312,11 @@
         <v>35962</v>
       </c>
       <c r="D330" s="5"/>
-      <c r="G330">
+      <c r="I330">
         <v>62.333494277031399</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -23313,7 +23328,7 @@
       </c>
       <c r="D331" s="5"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
         <v>4</v>
       </c>
@@ -23327,11 +23342,11 @@
       <c r="E332">
         <v>0.331889603745253</v>
       </c>
-      <c r="G332">
+      <c r="I332">
         <v>21.441681962288801</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:9">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -23343,7 +23358,7 @@
       </c>
       <c r="D333" s="5"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
         <v>4</v>
       </c>
@@ -23355,7 +23370,7 @@
       </c>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:9">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -23366,11 +23381,11 @@
         <v>35877</v>
       </c>
       <c r="D335" s="5"/>
-      <c r="G335">
+      <c r="I335">
         <v>72.055731686967803</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:9">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -23382,7 +23397,7 @@
       </c>
       <c r="D336" s="5"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -23397,7 +23412,7 @@
         <v>1.70721724626099</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -23409,7 +23424,7 @@
       </c>
       <c r="D338" s="5"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -23420,11 +23435,11 @@
         <v>35889</v>
       </c>
       <c r="D339" s="5"/>
-      <c r="G339">
+      <c r="I339">
         <v>98.096112130819193</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
         <v>4</v>
       </c>
@@ -23439,7 +23454,7 @@
         <v>2.8068345878362</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:9">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -23451,7 +23466,7 @@
       </c>
       <c r="D341" s="5"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -23463,7 +23478,7 @@
       </c>
       <c r="D342" s="5"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -23474,11 +23489,11 @@
         <v>35902</v>
       </c>
       <c r="D343" s="5"/>
-      <c r="G343">
+      <c r="I343">
         <v>100.438845319539</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:9">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -23490,7 +23505,7 @@
       </c>
       <c r="D344" s="5"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -23505,7 +23520,7 @@
         <v>2.6019090870863</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
         <v>4</v>
       </c>
@@ -23517,7 +23532,7 @@
       </c>
       <c r="D346" s="5"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:9">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -23529,7 +23544,7 @@
       </c>
       <c r="D347" s="5"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -23541,7 +23556,7 @@
       </c>
       <c r="D348" s="5"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -23553,7 +23568,7 @@
       </c>
       <c r="D349" s="5"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:9">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -23564,11 +23579,11 @@
         <v>35917</v>
       </c>
       <c r="D350" s="5"/>
-      <c r="G350">
+      <c r="I350">
         <v>90.592357750708999</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:9">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -23580,7 +23595,7 @@
       </c>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -23595,7 +23610,7 @@
         <v>1.2251797653588701</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:9">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -23607,7 +23622,7 @@
       </c>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:9">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -23619,7 +23634,7 @@
       </c>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -23631,7 +23646,7 @@
       </c>
       <c r="D355" s="5"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:9">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -23643,7 +23658,7 @@
       </c>
       <c r="D356" s="5"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:9">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -23654,11 +23669,11 @@
         <v>35931</v>
       </c>
       <c r="D357" s="5"/>
-      <c r="G357">
+      <c r="I357">
         <v>71.850492240947503</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -23670,7 +23685,7 @@
       </c>
       <c r="D358" s="5"/>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:9">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -23682,7 +23697,7 @@
       </c>
       <c r="D359" s="5"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:9">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -23694,7 +23709,7 @@
       </c>
       <c r="D360" s="5"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:9">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -23709,7 +23724,7 @@
         <v>0.49749800260709098</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -23721,7 +23736,7 @@
       </c>
       <c r="D362" s="5"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:9">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -23733,7 +23748,7 @@
       </c>
       <c r="D363" s="5"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:9">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -23745,7 +23760,7 @@
       </c>
       <c r="D364" s="5"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -23757,7 +23772,7 @@
       </c>
       <c r="D365" s="5"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:9">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -23768,11 +23783,11 @@
         <v>35946</v>
       </c>
       <c r="D366" s="5"/>
-      <c r="G366">
+      <c r="I366">
         <v>47.411980644084203</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:9">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -23784,7 +23799,7 @@
       </c>
       <c r="D367" s="5"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -23796,7 +23811,7 @@
       </c>
       <c r="D368" s="5"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:9">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -23811,7 +23826,7 @@
         <v>0.30707988169823902</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:9">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -23823,7 +23838,7 @@
       </c>
       <c r="D370" s="5"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:9">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -23837,7 +23852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:9">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -23849,7 +23864,7 @@
       </c>
       <c r="D372" s="5"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -23861,7 +23876,7 @@
       </c>
       <c r="D373" s="5"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:9">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -23873,7 +23888,7 @@
       </c>
       <c r="D374" s="5"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:9">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -23885,7 +23900,7 @@
       </c>
       <c r="D375" s="5"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -23897,7 +23912,7 @@
       </c>
       <c r="D376" s="5"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:9">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -23909,7 +23924,7 @@
       </c>
       <c r="D377" s="5"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:9">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -23921,7 +23936,7 @@
       </c>
       <c r="D378" s="5"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
         <v>4</v>
       </c>
@@ -23933,7 +23948,7 @@
       </c>
       <c r="D379" s="5"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:9">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -23947,11 +23962,11 @@
       <c r="E380">
         <v>0.59790297496615097</v>
       </c>
-      <c r="G380">
+      <c r="I380">
         <v>19.3295050045271</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:9">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -23963,7 +23978,7 @@
       </c>
       <c r="D381" s="5"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:9">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -23975,7 +23990,7 @@
       </c>
       <c r="D382" s="5"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -23986,11 +24001,11 @@
         <v>35877</v>
       </c>
       <c r="D383" s="5"/>
-      <c r="G383">
+      <c r="I383">
         <v>83.054063775162007</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:9">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -24005,7 +24020,7 @@
         <v>1.8557835415307999</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:9">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -24017,7 +24032,7 @@
       </c>
       <c r="D385" s="5"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:9">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -24028,11 +24043,11 @@
         <v>35889</v>
       </c>
       <c r="D386" s="5"/>
-      <c r="G386">
+      <c r="I386">
         <v>101.064407704614</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:9">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -24047,7 +24062,7 @@
         <v>2.7925885048244998</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:9">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -24059,7 +24074,7 @@
       </c>
       <c r="D388" s="5"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:9">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -24070,11 +24085,11 @@
         <v>35902</v>
       </c>
       <c r="D389" s="5"/>
-      <c r="G389">
+      <c r="I389">
         <v>104.61111042206601</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:9">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -24086,7 +24101,7 @@
       </c>
       <c r="D390" s="5"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:9">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -24098,7 +24113,7 @@
       </c>
       <c r="D391" s="5"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:9">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -24110,7 +24125,7 @@
       </c>
       <c r="D392" s="5"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:9">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -24121,11 +24136,11 @@
         <v>35917</v>
       </c>
       <c r="D393" s="5"/>
-      <c r="G393">
+      <c r="I393">
         <v>99.187617051359794</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:9">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -24137,7 +24152,7 @@
       </c>
       <c r="D394" s="5"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:9">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -24149,7 +24164,7 @@
       </c>
       <c r="D395" s="5"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:9">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -24161,7 +24176,7 @@
       </c>
       <c r="D396" s="5"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:9">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -24173,7 +24188,7 @@
       </c>
       <c r="D397" s="5"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:9">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -24184,11 +24199,11 @@
         <v>35931</v>
       </c>
       <c r="D398" s="5"/>
-      <c r="G398">
+      <c r="I398">
         <v>87.100847110769195</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:9">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -24200,7 +24215,7 @@
       </c>
       <c r="D399" s="5"/>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:9">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -24212,7 +24227,7 @@
       </c>
       <c r="D400" s="5"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:10">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -24224,7 +24239,7 @@
       </c>
       <c r="D401" s="5"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:10">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -24239,7 +24254,7 @@
         <v>1.46865332196192</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:10">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -24251,7 +24266,7 @@
       </c>
       <c r="D403" s="5"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:10">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -24263,7 +24278,7 @@
       </c>
       <c r="D404" s="5"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:10">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -24274,11 +24289,11 @@
         <v>35945</v>
       </c>
       <c r="D405" s="5"/>
-      <c r="G405">
+      <c r="I405">
         <v>75.648107953911094</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:10">
       <c r="A406" t="s">
         <v>4</v>
       </c>
@@ -24290,7 +24305,7 @@
       </c>
       <c r="D406" s="5"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:10">
       <c r="A407" t="s">
         <v>4</v>
       </c>
@@ -24305,7 +24320,7 @@
         <v>0.95392899546816701</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:10">
       <c r="A408" t="s">
         <v>4</v>
       </c>
@@ -24317,7 +24332,7 @@
       </c>
       <c r="D408" s="5"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:10">
       <c r="A409" t="s">
         <v>4</v>
       </c>
@@ -24331,7 +24346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:10">
       <c r="A410" t="s">
         <v>4</v>
       </c>
@@ -24343,7 +24358,7 @@
       </c>
       <c r="D410" s="5"/>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:10">
       <c r="A411" t="s">
         <v>4</v>
       </c>
@@ -24355,7 +24370,7 @@
       </c>
       <c r="D411" s="5"/>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:10">
       <c r="A412" t="s">
         <v>4</v>
       </c>
@@ -24366,11 +24381,11 @@
         <v>35962</v>
       </c>
       <c r="D412" s="5"/>
-      <c r="G412">
+      <c r="I412">
         <v>60.084587049003403</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:10">
       <c r="A413" t="s">
         <v>4</v>
       </c>
@@ -24382,7 +24397,7 @@
       </c>
       <c r="D413" s="5"/>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:10">
       <c r="A414" t="s">
         <v>4</v>
       </c>
@@ -24392,14 +24407,14 @@
       <c r="C414" s="15">
         <v>43859</v>
       </c>
-      <c r="G414">
+      <c r="I414">
         <v>78.929015965050638</v>
       </c>
-      <c r="H414">
+      <c r="J414">
         <v>7.6933309835944632</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:10">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -24409,14 +24424,14 @@
       <c r="C415" s="15">
         <v>43875</v>
       </c>
-      <c r="G415">
+      <c r="I415">
         <v>59.455616899861965</v>
       </c>
-      <c r="H415">
+      <c r="J415">
         <v>1.2063290642635434</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:10">
       <c r="A416" t="s">
         <v>4</v>
       </c>
@@ -24429,14 +24444,14 @@
       <c r="D416" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E416">
+      <c r="G416">
         <v>2.447780174244524</v>
       </c>
-      <c r="F416">
+      <c r="H416">
         <v>0.5775751949409198</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:10">
       <c r="A417" t="s">
         <v>4</v>
       </c>
@@ -24446,14 +24461,14 @@
       <c r="C417" s="15">
         <v>43889</v>
       </c>
-      <c r="G417">
+      <c r="I417">
         <v>69.779893986471066</v>
       </c>
-      <c r="H417">
+      <c r="J417">
         <v>4.7694179276883206</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:10">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -24466,14 +24481,14 @@
       <c r="D418" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E418">
+      <c r="G418">
         <v>2.4661728527559461</v>
       </c>
-      <c r="F418">
+      <c r="H418">
         <v>0.62652431956608889</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:10">
       <c r="A419" t="s">
         <v>4</v>
       </c>
@@ -24483,11 +24498,11 @@
       <c r="C419" s="15">
         <v>43903</v>
       </c>
-      <c r="G419">
+      <c r="I419">
         <v>95.562706876684871</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:10">
       <c r="A420" t="s">
         <v>4</v>
       </c>
@@ -24500,14 +24515,14 @@
       <c r="D420" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E420">
+      <c r="G420">
         <v>3.3262620407913457</v>
       </c>
-      <c r="F420">
+      <c r="H420">
         <v>0.57893100337083603</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:10">
       <c r="A421" t="s">
         <v>4</v>
       </c>
@@ -24517,11 +24532,11 @@
       <c r="C421" s="15">
         <v>43908</v>
       </c>
-      <c r="G421">
+      <c r="I421">
         <v>85.365260888374024</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:10">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -24531,11 +24546,11 @@
       <c r="C422" s="15">
         <v>43916</v>
       </c>
-      <c r="G422">
+      <c r="I422">
         <v>78.19911730793919</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:10">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -24548,14 +24563,14 @@
       <c r="D423" t="s">
         <v>26</v>
       </c>
-      <c r="E423">
+      <c r="G423">
         <v>3.0243213740840202</v>
       </c>
-      <c r="F423">
+      <c r="H423">
         <v>0.41519116850850607</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:10">
       <c r="A424" t="s">
         <v>4</v>
       </c>
@@ -24568,14 +24583,14 @@
       <c r="D424" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E424">
+      <c r="G424">
         <v>1.98689198089673</v>
       </c>
-      <c r="F424">
+      <c r="H424">
         <v>0.83699491528160364</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:10">
       <c r="A425" t="s">
         <v>4</v>
       </c>
@@ -24589,7 +24604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:10">
       <c r="A426" t="s">
         <v>4</v>
       </c>
@@ -24602,14 +24617,14 @@
       <c r="D426" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E426">
+      <c r="G426">
         <v>2.4438810385057055</v>
       </c>
-      <c r="F426">
+      <c r="H426">
         <v>0.32369558782899926</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:10">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -24622,14 +24637,14 @@
       <c r="D427" t="s">
         <v>26</v>
       </c>
-      <c r="E427">
+      <c r="G427">
         <v>1.8690969519058984</v>
       </c>
-      <c r="F427">
+      <c r="H427">
         <v>0.48277194505585685</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:10">
       <c r="A428" t="s">
         <v>4</v>
       </c>
@@ -24642,15 +24657,15 @@
       <c r="D428" t="s">
         <v>92</v>
       </c>
-      <c r="E428">
+      <c r="G428">
         <v>0.96622880281905799</v>
       </c>
-      <c r="F428">
+      <c r="H428">
         <v>4.0880356277400498E-2</v>
       </c>
-      <c r="G428" s="19"/>
-    </row>
-    <row r="429" spans="1:8">
+      <c r="I428" s="19"/>
+    </row>
+    <row r="429" spans="1:10">
       <c r="A429" t="s">
         <v>4</v>
       </c>
@@ -24663,15 +24678,15 @@
       <c r="D429" t="s">
         <v>93</v>
       </c>
-      <c r="E429">
+      <c r="G429">
         <v>1.4002835462585033</v>
       </c>
-      <c r="F429">
+      <c r="H429">
         <v>0.15886962859759848</v>
       </c>
-      <c r="G429" s="19"/>
-    </row>
-    <row r="430" spans="1:8">
+      <c r="I429" s="19"/>
+    </row>
+    <row r="430" spans="1:10">
       <c r="A430" t="s">
         <v>4</v>
       </c>
@@ -24684,15 +24699,15 @@
       <c r="D430" t="s">
         <v>94</v>
       </c>
-      <c r="E430">
+      <c r="G430">
         <v>1.66441845319385</v>
       </c>
-      <c r="F430">
+      <c r="H430">
         <v>0.17583379349623618</v>
       </c>
-      <c r="G430" s="19"/>
-    </row>
-    <row r="431" spans="1:8">
+      <c r="I430" s="19"/>
+    </row>
+    <row r="431" spans="1:10">
       <c r="A431" t="s">
         <v>4</v>
       </c>
@@ -24705,15 +24720,15 @@
       <c r="D431" t="s">
         <v>26</v>
       </c>
-      <c r="E431">
+      <c r="G431">
         <v>0.78100720369700449</v>
       </c>
-      <c r="F431">
+      <c r="H431">
         <v>0.37140519622151713</v>
       </c>
-      <c r="G431" s="19"/>
-    </row>
-    <row r="432" spans="1:8">
+      <c r="I431" s="19"/>
+    </row>
+    <row r="432" spans="1:10">
       <c r="A432" t="s">
         <v>4</v>
       </c>
@@ -24726,15 +24741,15 @@
       <c r="D432" t="s">
         <v>92</v>
       </c>
-      <c r="E432">
+      <c r="G432">
         <v>0.82775484311594205</v>
       </c>
-      <c r="F432">
+      <c r="H432">
         <v>6.7844387852640395E-2</v>
       </c>
-      <c r="G432" s="20"/>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="I432" s="20"/>
+    </row>
+    <row r="433" spans="1:9">
       <c r="A433" t="s">
         <v>4</v>
       </c>
@@ -24747,15 +24762,15 @@
       <c r="D433" t="s">
         <v>93</v>
       </c>
-      <c r="E433">
+      <c r="G433">
         <v>1.5800080236707235</v>
       </c>
-      <c r="F433">
+      <c r="H433">
         <v>0.25289671684019627</v>
       </c>
-      <c r="G433" s="19"/>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="I433" s="19"/>
+    </row>
+    <row r="434" spans="1:9">
       <c r="A434" t="s">
         <v>4</v>
       </c>
@@ -24768,15 +24783,15 @@
       <c r="D434" t="s">
         <v>94</v>
       </c>
-      <c r="E434">
+      <c r="G434">
         <v>1.9561735934840101</v>
       </c>
-      <c r="F434">
+      <c r="H434">
         <v>0.26033246545539634</v>
       </c>
-      <c r="G434" s="19"/>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="I434" s="19"/>
+    </row>
+    <row r="435" spans="1:9">
       <c r="A435" t="s">
         <v>4</v>
       </c>
@@ -24789,9 +24804,9 @@
       <c r="D435" t="s">
         <v>26</v>
       </c>
-      <c r="G435" s="19"/>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="I435" s="19"/>
+    </row>
+    <row r="436" spans="1:9">
       <c r="A436" t="s">
         <v>4</v>
       </c>
@@ -24804,15 +24819,15 @@
       <c r="D436" t="s">
         <v>92</v>
       </c>
-      <c r="E436">
+      <c r="G436">
         <v>1.0931902031267828</v>
       </c>
-      <c r="F436">
+      <c r="H436">
         <v>2.4854104088608289E-2</v>
       </c>
-      <c r="G436" s="19"/>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="I436" s="19"/>
+    </row>
+    <row r="437" spans="1:9">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -24825,15 +24840,15 @@
       <c r="D437" t="s">
         <v>93</v>
       </c>
-      <c r="E437">
+      <c r="G437">
         <v>1.3982404832221815</v>
       </c>
-      <c r="F437">
+      <c r="H437">
         <v>0.11975538620022501</v>
       </c>
-      <c r="G437" s="19"/>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="I437" s="19"/>
+    </row>
+    <row r="438" spans="1:9">
       <c r="A438" t="s">
         <v>4</v>
       </c>
@@ -24846,15 +24861,15 @@
       <c r="D438" t="s">
         <v>94</v>
       </c>
-      <c r="E438">
+      <c r="G438">
         <v>1.9677386739325455</v>
       </c>
-      <c r="F438">
+      <c r="H438">
         <v>0.17337960915672457</v>
       </c>
-      <c r="G438" s="19"/>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="I438" s="19"/>
+    </row>
+    <row r="439" spans="1:9">
       <c r="A439" t="s">
         <v>4</v>
       </c>
@@ -24867,15 +24882,15 @@
       <c r="D439" t="s">
         <v>26</v>
       </c>
-      <c r="E439">
+      <c r="G439">
         <v>0.83596317323475655</v>
       </c>
-      <c r="F439">
+      <c r="H439">
         <v>0.19158441531463238</v>
       </c>
-      <c r="G439" s="19"/>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="I439" s="19"/>
+    </row>
+    <row r="440" spans="1:9">
       <c r="A440" t="s">
         <v>4</v>
       </c>
@@ -24888,15 +24903,15 @@
       <c r="D440" t="s">
         <v>92</v>
       </c>
-      <c r="E440">
+      <c r="G440">
         <v>0.65238201774364601</v>
       </c>
-      <c r="F440">
+      <c r="H440">
         <v>0.23103113757015439</v>
       </c>
-      <c r="G440" s="19"/>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="I440" s="19"/>
+    </row>
+    <row r="441" spans="1:9">
       <c r="A441" t="s">
         <v>4</v>
       </c>
@@ -24909,15 +24924,15 @@
       <c r="D441" t="s">
         <v>93</v>
       </c>
-      <c r="E441">
+      <c r="G441">
         <v>1.322065035018541</v>
       </c>
-      <c r="F441">
+      <c r="H441">
         <v>3.1777304566605977E-2</v>
       </c>
-      <c r="G441" s="19"/>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="I441" s="19"/>
+    </row>
+    <row r="442" spans="1:9">
       <c r="A442" t="s">
         <v>4</v>
       </c>
@@ -24930,14 +24945,14 @@
       <c r="D442" t="s">
         <v>94</v>
       </c>
-      <c r="E442">
+      <c r="G442">
         <v>1.6140011723961478</v>
       </c>
-      <c r="F442">
+      <c r="H442">
         <v>0.15184846405330343</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:9">
       <c r="A443" t="s">
         <v>4</v>
       </c>
@@ -24950,14 +24965,14 @@
       <c r="D443" t="s">
         <v>26</v>
       </c>
-      <c r="E443">
+      <c r="G443">
         <v>1.2903872794954769</v>
       </c>
-      <c r="F443">
+      <c r="H443">
         <v>7.0819146580885062E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:9">
       <c r="A444" t="s">
         <v>4</v>
       </c>
@@ -24970,14 +24985,14 @@
       <c r="D444" t="s">
         <v>92</v>
       </c>
-      <c r="E444">
+      <c r="G444">
         <v>1.0423316931013793</v>
       </c>
-      <c r="F444">
+      <c r="H444">
         <v>0.16128622281304383</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:9">
       <c r="A445" t="s">
         <v>4</v>
       </c>
@@ -24990,14 +25005,14 @@
       <c r="D445" t="s">
         <v>93</v>
       </c>
-      <c r="E445">
+      <c r="G445">
         <v>1.5886898634361486</v>
       </c>
-      <c r="F445">
+      <c r="H445">
         <v>0.14715812069371489</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:9">
       <c r="A446" t="s">
         <v>4</v>
       </c>
@@ -25010,14 +25025,14 @@
       <c r="D446" t="s">
         <v>94</v>
       </c>
-      <c r="E446">
+      <c r="G446">
         <v>2.5116967645589212</v>
       </c>
-      <c r="F446">
+      <c r="H446">
         <v>0.13352913619326223</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:9">
       <c r="A447" t="s">
         <v>4</v>
       </c>
@@ -25031,7 +25046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:9">
       <c r="A448" t="s">
         <v>4</v>
       </c>
@@ -25044,14 +25059,14 @@
       <c r="D448" t="s">
         <v>92</v>
       </c>
-      <c r="E448">
+      <c r="G448">
         <v>1.0024207971203101</v>
       </c>
-      <c r="F448">
+      <c r="H448">
         <v>7.5024946274899224E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>4</v>
       </c>
@@ -25064,14 +25079,14 @@
       <c r="D449" t="s">
         <v>93</v>
       </c>
-      <c r="E449">
+      <c r="G449">
         <v>1.5843678896254811</v>
       </c>
-      <c r="F449">
+      <c r="H449">
         <v>0.17192019226568991</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -25084,14 +25099,14 @@
       <c r="D450" t="s">
         <v>94</v>
       </c>
-      <c r="E450">
+      <c r="G450">
         <v>2.2370442718237076</v>
       </c>
-      <c r="F450">
+      <c r="H450">
         <v>0.21392717621150564</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:8">
       <c r="A451" t="s">
         <v>4</v>
       </c>
@@ -25104,14 +25119,14 @@
       <c r="D451" t="s">
         <v>26</v>
       </c>
-      <c r="E451">
+      <c r="G451">
         <v>1.7406813847796052</v>
       </c>
-      <c r="F451">
+      <c r="H451">
         <v>0.37906990625783948</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:8">
       <c r="A452" t="s">
         <v>4</v>
       </c>
@@ -25124,14 +25139,14 @@
       <c r="D452" t="s">
         <v>92</v>
       </c>
-      <c r="E452">
+      <c r="G452">
         <v>0.58392758499814479</v>
       </c>
-      <c r="F452">
+      <c r="H452">
         <v>1.2742294195184746E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:8">
       <c r="A453" t="s">
         <v>4</v>
       </c>
@@ -25144,14 +25159,14 @@
       <c r="D453" t="s">
         <v>93</v>
       </c>
-      <c r="E453">
+      <c r="G453">
         <v>1.2233964483417186</v>
       </c>
-      <c r="F453">
+      <c r="H453">
         <v>9.4884071762134911E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:8">
       <c r="A454" t="s">
         <v>4</v>
       </c>
@@ -25164,14 +25179,14 @@
       <c r="D454" t="s">
         <v>94</v>
       </c>
-      <c r="E454">
+      <c r="G454">
         <v>1.6277835385805448</v>
       </c>
-      <c r="F454">
+      <c r="H454">
         <v>0.28375599411512148</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:8">
       <c r="A455" t="s">
         <v>4</v>
       </c>
@@ -25184,14 +25199,14 @@
       <c r="D455" t="s">
         <v>26</v>
       </c>
-      <c r="E455">
+      <c r="G455">
         <v>1.1362536494428879</v>
       </c>
-      <c r="F455">
+      <c r="H455">
         <v>0.26160615917091551</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:8">
       <c r="A456" t="s">
         <v>4</v>
       </c>
@@ -25204,14 +25219,14 @@
       <c r="D456" t="s">
         <v>92</v>
       </c>
-      <c r="E456">
+      <c r="G456">
         <v>0.64985886678286375</v>
       </c>
-      <c r="F456">
+      <c r="H456">
         <v>1.7008384548612469E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:8">
       <c r="A457" t="s">
         <v>4</v>
       </c>
@@ -25224,14 +25239,14 @@
       <c r="D457" t="s">
         <v>93</v>
       </c>
-      <c r="E457">
+      <c r="G457">
         <v>1.1756272808913713</v>
       </c>
-      <c r="F457">
+      <c r="H457">
         <v>6.4850594121052887E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:8">
       <c r="A458" t="s">
         <v>4</v>
       </c>
@@ -25244,14 +25259,14 @@
       <c r="D458" t="s">
         <v>94</v>
       </c>
-      <c r="E458">
+      <c r="G458">
         <v>1.5882081998524853</v>
       </c>
-      <c r="F458">
+      <c r="H458">
         <v>0.19916182968827001</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:8">
       <c r="A459" t="s">
         <v>4</v>
       </c>
@@ -25265,7 +25280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:8">
       <c r="A460" t="s">
         <v>4</v>
       </c>
@@ -25278,14 +25293,14 @@
       <c r="D460" t="s">
         <v>92</v>
       </c>
-      <c r="E460">
+      <c r="G460">
         <v>0.60862608046886979</v>
       </c>
-      <c r="F460">
+      <c r="H460">
         <v>4.579052350286357E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:8">
       <c r="A461" t="s">
         <v>4</v>
       </c>
@@ -25298,14 +25313,14 @@
       <c r="D461" t="s">
         <v>93</v>
       </c>
-      <c r="E461">
+      <c r="G461">
         <v>1.204509542679786</v>
       </c>
-      <c r="F461">
+      <c r="H461">
         <v>9.6949957270107773E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:8">
       <c r="A462" t="s">
         <v>4</v>
       </c>
@@ -25318,14 +25333,14 @@
       <c r="D462" t="s">
         <v>94</v>
       </c>
-      <c r="E462">
+      <c r="G462">
         <v>1.9465277338797671</v>
       </c>
-      <c r="F462">
+      <c r="H462">
         <v>6.0153019960565629E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:8">
       <c r="A463" t="s">
         <v>4</v>
       </c>
@@ -25338,14 +25353,14 @@
       <c r="D463" t="s">
         <v>26</v>
       </c>
-      <c r="E463">
+      <c r="G463">
         <v>1.3747041205321371</v>
       </c>
-      <c r="F463">
+      <c r="H463">
         <v>0.26204290201678598</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:8">
       <c r="A464" t="s">
         <v>4</v>
       </c>
@@ -25358,14 +25373,14 @@
       <c r="D464" t="s">
         <v>92</v>
       </c>
-      <c r="E464">
+      <c r="G464">
         <v>0.62908422408389331</v>
       </c>
-      <c r="F464">
+      <c r="H464">
         <v>5.1522623458706764E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:8">
       <c r="A465" t="s">
         <v>4</v>
       </c>
@@ -25378,14 +25393,14 @@
       <c r="D465" t="s">
         <v>93</v>
       </c>
-      <c r="E465">
+      <c r="G465">
         <v>1.270422811330941</v>
       </c>
-      <c r="F465">
+      <c r="H465">
         <v>6.8235740707156461E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:8">
       <c r="A466" t="s">
         <v>4</v>
       </c>
@@ -25398,14 +25413,14 @@
       <c r="D466" t="s">
         <v>94</v>
       </c>
-      <c r="E466">
+      <c r="G466">
         <v>1.9908966021306609</v>
       </c>
-      <c r="F466">
+      <c r="H466">
         <v>0.462538215425574</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:8">
       <c r="A467" t="s">
         <v>4</v>
       </c>
@@ -25418,14 +25433,14 @@
       <c r="D467" t="s">
         <v>26</v>
       </c>
-      <c r="E467">
+      <c r="G467">
         <v>1.3464610473727248</v>
       </c>
-      <c r="F467">
+      <c r="H467">
         <v>0.23887717611423617</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:8">
       <c r="A468" t="s">
         <v>4</v>
       </c>
@@ -25438,14 +25453,14 @@
       <c r="D468" t="s">
         <v>92</v>
       </c>
-      <c r="E468">
+      <c r="G468">
         <v>0.52078898963693532</v>
       </c>
-      <c r="F468">
+      <c r="H468">
         <v>2.4414183159713127E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:8">
       <c r="A469" t="s">
         <v>4</v>
       </c>
@@ -25458,14 +25473,14 @@
       <c r="D469" t="s">
         <v>93</v>
       </c>
-      <c r="E469">
+      <c r="G469">
         <v>1.1349185906262929</v>
       </c>
-      <c r="F469">
+      <c r="H469">
         <v>7.3914242199807439E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:8">
       <c r="A470" t="s">
         <v>4</v>
       </c>
@@ -25478,14 +25493,14 @@
       <c r="D470" t="s">
         <v>94</v>
       </c>
-      <c r="E470">
+      <c r="G470">
         <v>1.6285828038926069</v>
       </c>
-      <c r="F470">
+      <c r="H470">
         <v>0.1596675865828478</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:8">
       <c r="A471" t="s">
         <v>4</v>
       </c>
@@ -25498,14 +25513,14 @@
       <c r="D471" t="s">
         <v>26</v>
       </c>
-      <c r="E471">
+      <c r="G471">
         <v>1.4652932358268815</v>
       </c>
-      <c r="F471">
+      <c r="H471">
         <v>0.30976277716391826</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:8">
       <c r="A472" t="s">
         <v>4</v>
       </c>
@@ -25518,14 +25533,14 @@
       <c r="D472" t="s">
         <v>92</v>
       </c>
-      <c r="E472">
+      <c r="G472">
         <v>0.73662447472526882</v>
       </c>
-      <c r="F472">
+      <c r="H472">
         <v>1.6683925775133418E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:8">
       <c r="A473" t="s">
         <v>4</v>
       </c>
@@ -25538,14 +25553,14 @@
       <c r="D473" t="s">
         <v>93</v>
       </c>
-      <c r="E473">
+      <c r="G473">
         <v>1.1410043354758912</v>
       </c>
-      <c r="F473">
+      <c r="H473">
         <v>5.1034931828306748E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:8">
       <c r="A474" t="s">
         <v>4</v>
       </c>
@@ -25558,14 +25573,14 @@
       <c r="D474" t="s">
         <v>94</v>
       </c>
-      <c r="E474">
+      <c r="G474">
         <v>2.3421080382356516</v>
       </c>
-      <c r="F474">
+      <c r="H474">
         <v>0.15238843179587683</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:8">
       <c r="A475" t="s">
         <v>4</v>
       </c>
@@ -25578,14 +25593,14 @@
       <c r="D475" t="s">
         <v>26</v>
       </c>
-      <c r="E475">
+      <c r="G475">
         <v>1.7437975689599017</v>
       </c>
-      <c r="F475">
+      <c r="H475">
         <v>0.339017721945647</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:8">
       <c r="A476" t="s">
         <v>4</v>
       </c>
@@ -25598,14 +25613,14 @@
       <c r="D476" t="s">
         <v>92</v>
       </c>
-      <c r="E476">
+      <c r="G476">
         <v>0.2968543259996741</v>
       </c>
-      <c r="F476">
+      <c r="H476">
         <v>1.9884868977167601E-3</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:8">
       <c r="A477" t="s">
         <v>4</v>
       </c>
@@ -25618,14 +25633,14 @@
       <c r="D477" t="s">
         <v>93</v>
       </c>
-      <c r="E477">
+      <c r="G477">
         <v>1.0026925175537538</v>
       </c>
-      <c r="F477">
+      <c r="H477">
         <v>0.14550010557983059</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:8">
       <c r="A478" t="s">
         <v>4</v>
       </c>
@@ -25638,14 +25653,14 @@
       <c r="D478" t="s">
         <v>94</v>
       </c>
-      <c r="E478">
+      <c r="G478">
         <v>1.2587501754213317</v>
       </c>
-      <c r="F478">
+      <c r="H478">
         <v>0.1691537750513952</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:8">
       <c r="A479" t="s">
         <v>4</v>
       </c>
@@ -25658,14 +25673,14 @@
       <c r="D479" t="s">
         <v>26</v>
       </c>
-      <c r="E479">
+      <c r="G479">
         <v>0.94982675603097011</v>
       </c>
-      <c r="F479">
+      <c r="H479">
         <v>0.18292425517668898</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:8">
       <c r="A480" t="s">
         <v>4</v>
       </c>
@@ -25678,14 +25693,14 @@
       <c r="D480" t="s">
         <v>92</v>
       </c>
-      <c r="E480">
+      <c r="G480">
         <v>0.17417940880657612</v>
       </c>
-      <c r="F480">
+      <c r="H480">
         <v>2.6737212438492509E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:8">
       <c r="A481" t="s">
         <v>4</v>
       </c>
@@ -25698,14 +25713,14 @@
       <c r="D481" t="s">
         <v>93</v>
       </c>
-      <c r="E481">
+      <c r="G481">
         <v>1.2033982798835332</v>
       </c>
-      <c r="F481">
+      <c r="H481">
         <v>4.0911184192888334E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:8">
       <c r="A482" t="s">
         <v>4</v>
       </c>
@@ -25718,14 +25733,14 @@
       <c r="D482" t="s">
         <v>94</v>
       </c>
-      <c r="E482">
+      <c r="G482">
         <v>1.3825715633860443</v>
       </c>
-      <c r="F482">
+      <c r="H482">
         <v>9.9820449612275944E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:8">
       <c r="A483" t="s">
         <v>4</v>
       </c>
@@ -25738,14 +25753,14 @@
       <c r="D483" t="s">
         <v>26</v>
       </c>
-      <c r="E483">
+      <c r="G483">
         <v>1.5618703708034771</v>
       </c>
-      <c r="F483">
+      <c r="H483">
         <v>0.15193507160190126</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:8">
       <c r="A484" t="s">
         <v>4</v>
       </c>
@@ -25758,14 +25773,14 @@
       <c r="D484" t="s">
         <v>92</v>
       </c>
-      <c r="E484">
+      <c r="G484">
         <v>0.2652077999132913</v>
       </c>
-      <c r="F484">
+      <c r="H484">
         <v>3.2240706125142495E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:8">
       <c r="A485" t="s">
         <v>4</v>
       </c>
@@ -25778,14 +25793,14 @@
       <c r="D485" t="s">
         <v>93</v>
       </c>
-      <c r="E485">
+      <c r="G485">
         <v>1.317926534726364</v>
       </c>
-      <c r="F485">
+      <c r="H485">
         <v>0.16255424600881579</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:8">
       <c r="A486" t="s">
         <v>4</v>
       </c>
@@ -25798,14 +25813,14 @@
       <c r="D486" t="s">
         <v>94</v>
       </c>
-      <c r="E486">
+      <c r="G486">
         <v>1.2926989119117176</v>
       </c>
-      <c r="F486">
+      <c r="H486">
         <v>9.6337056824822825E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:8">
       <c r="A487" t="s">
         <v>4</v>
       </c>
@@ -25818,14 +25833,14 @@
       <c r="D487" t="s">
         <v>26</v>
       </c>
-      <c r="E487">
+      <c r="G487">
         <v>1.8530678262760696</v>
       </c>
-      <c r="F487">
+      <c r="H487">
         <v>0.25443084816614792</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:8">
       <c r="A488" t="s">
         <v>4</v>
       </c>
@@ -25838,14 +25853,14 @@
       <c r="D488" t="s">
         <v>92</v>
       </c>
-      <c r="E488">
+      <c r="G488">
         <v>0.23843375477488393</v>
       </c>
-      <c r="F488">
+      <c r="H488">
         <v>3.8994110067380731E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:8">
       <c r="A489" t="s">
         <v>4</v>
       </c>
@@ -25858,14 +25873,14 @@
       <c r="D489" t="s">
         <v>93</v>
       </c>
-      <c r="E489">
+      <c r="G489">
         <v>1.1189514977404149</v>
       </c>
-      <c r="F489">
+      <c r="H489">
         <v>0.10389032381322315</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:8">
       <c r="A490" t="s">
         <v>4</v>
       </c>
@@ -25878,14 +25893,14 @@
       <c r="D490" t="s">
         <v>94</v>
       </c>
-      <c r="E490">
+      <c r="G490">
         <v>1.1954748383666809</v>
       </c>
-      <c r="F490">
+      <c r="H490">
         <v>0.21099331963978221</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:8">
       <c r="A491" t="s">
         <v>4</v>
       </c>
@@ -25898,14 +25913,14 @@
       <c r="D491" t="s">
         <v>26</v>
       </c>
-      <c r="E491">
+      <c r="G491">
         <v>1.8434262658797802</v>
       </c>
-      <c r="F491">
+      <c r="H491">
         <v>0.35198847194728033</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:8">
       <c r="A492" t="s">
         <v>4</v>
       </c>
@@ -25918,14 +25933,14 @@
       <c r="D492" t="s">
         <v>92</v>
       </c>
-      <c r="E492">
+      <c r="G492">
         <v>0.15196071336252528</v>
       </c>
-      <c r="F492">
+      <c r="H492">
         <v>9.3274704276723828E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:8">
       <c r="A493" t="s">
         <v>4</v>
       </c>
@@ -25938,14 +25953,14 @@
       <c r="D493" t="s">
         <v>93</v>
       </c>
-      <c r="E493">
+      <c r="G493">
         <v>0.85013338025323215</v>
       </c>
-      <c r="F493">
+      <c r="H493">
         <v>6.2096489155438986E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:8">
       <c r="A494" t="s">
         <v>4</v>
       </c>
@@ -25958,14 +25973,14 @@
       <c r="D494" t="s">
         <v>94</v>
       </c>
-      <c r="E494">
+      <c r="G494">
         <v>1.1509496535762522</v>
       </c>
-      <c r="F494">
+      <c r="H494">
         <v>7.5310800087011229E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:8">
       <c r="A495" t="s">
         <v>4</v>
       </c>
@@ -25978,14 +25993,14 @@
       <c r="D495" t="s">
         <v>26</v>
       </c>
-      <c r="E495">
+      <c r="G495">
         <v>1.4985130747999864</v>
       </c>
-      <c r="F495">
+      <c r="H495">
         <v>0.21940645519328292</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:8">
       <c r="A496" t="s">
         <v>4</v>
       </c>
@@ -25998,14 +26013,14 @@
       <c r="D496" t="s">
         <v>92</v>
       </c>
-      <c r="E496">
+      <c r="G496">
         <v>0.25479996322279042</v>
       </c>
-      <c r="F496">
+      <c r="H496">
         <v>3.5307017449797896E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:8">
       <c r="A497" t="s">
         <v>4</v>
       </c>
@@ -26018,14 +26033,14 @@
       <c r="D497" t="s">
         <v>93</v>
       </c>
-      <c r="E497">
+      <c r="G497">
         <v>1.771459646727896</v>
       </c>
-      <c r="F497">
+      <c r="H497">
         <v>0.47229336627794255</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:8">
       <c r="A498" t="s">
         <v>4</v>
       </c>
@@ -26038,14 +26053,14 @@
       <c r="D498" t="s">
         <v>94</v>
       </c>
-      <c r="E498">
+      <c r="G498">
         <v>1.0954702032306727</v>
       </c>
-      <c r="F498">
+      <c r="H498">
         <v>0.10688013237814073</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:8">
       <c r="A499" t="s">
         <v>4</v>
       </c>
@@ -26058,14 +26073,14 @@
       <c r="D499" t="s">
         <v>26</v>
       </c>
-      <c r="E499">
+      <c r="G499">
         <v>1.6548819447356782</v>
       </c>
-      <c r="F499">
+      <c r="H499">
         <v>0.12858285098420077</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:8">
       <c r="A500" t="s">
         <v>4</v>
       </c>
@@ -26078,14 +26093,14 @@
       <c r="D500" t="s">
         <v>92</v>
       </c>
-      <c r="E500">
+      <c r="G500">
         <v>1.8104025124676413</v>
       </c>
-      <c r="F500">
+      <c r="H500">
         <v>0.13220610653753262</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:8">
       <c r="A501" t="s">
         <v>4</v>
       </c>
@@ -26098,14 +26113,14 @@
       <c r="D501" t="s">
         <v>93</v>
       </c>
-      <c r="E501">
+      <c r="G501">
         <v>2.2321403114870444</v>
       </c>
-      <c r="F501">
+      <c r="H501">
         <v>9.4545610549776088E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:8">
       <c r="A502" t="s">
         <v>4</v>
       </c>
@@ -26118,14 +26133,14 @@
       <c r="D502" t="s">
         <v>94</v>
       </c>
-      <c r="E502">
+      <c r="G502">
         <v>2.4260943224913762</v>
       </c>
-      <c r="F502">
+      <c r="H502">
         <v>0.50474655100833155</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:8">
       <c r="A503" t="s">
         <v>4</v>
       </c>
@@ -26138,14 +26153,14 @@
       <c r="D503" t="s">
         <v>26</v>
       </c>
-      <c r="E503">
+      <c r="G503">
         <v>1.0557396726112414</v>
       </c>
-      <c r="F503">
+      <c r="H503">
         <v>0.28430733360165567</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:8">
       <c r="A504" t="s">
         <v>4</v>
       </c>
@@ -26158,14 +26173,14 @@
       <c r="D504" t="s">
         <v>92</v>
       </c>
-      <c r="E504">
+      <c r="G504">
         <v>1.4880829759769643</v>
       </c>
-      <c r="F504">
+      <c r="H504">
         <v>0.12782614008572199</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:8">
       <c r="A505" t="s">
         <v>4</v>
       </c>
@@ -26178,14 +26193,14 @@
       <c r="D505" t="s">
         <v>93</v>
       </c>
-      <c r="E505">
+      <c r="G505">
         <v>2.1249459208231052</v>
       </c>
-      <c r="F505">
+      <c r="H505">
         <v>0.18930595918564083</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:8">
       <c r="A506" t="s">
         <v>4</v>
       </c>
@@ -26198,14 +26213,14 @@
       <c r="D506" t="s">
         <v>94</v>
       </c>
-      <c r="E506">
+      <c r="G506">
         <v>2.7962852594201211</v>
       </c>
-      <c r="F506">
+      <c r="H506">
         <v>0.47759907101570637</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:8">
       <c r="A507" t="s">
         <v>4</v>
       </c>
@@ -26218,14 +26233,14 @@
       <c r="D507" t="s">
         <v>26</v>
       </c>
-      <c r="E507">
+      <c r="G507">
         <v>2.1741651741612062</v>
       </c>
-      <c r="F507">
+      <c r="H507">
         <v>0.13443861621855505</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:8">
       <c r="A508" t="s">
         <v>4</v>
       </c>
@@ -26238,14 +26253,14 @@
       <c r="D508" t="s">
         <v>92</v>
       </c>
-      <c r="E508">
+      <c r="G508">
         <v>1.6641209456998636</v>
       </c>
-      <c r="F508">
+      <c r="H508">
         <v>0.24932779658872734</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:8">
       <c r="A509" t="s">
         <v>4</v>
       </c>
@@ -26258,14 +26273,14 @@
       <c r="D509" t="s">
         <v>93</v>
       </c>
-      <c r="E509">
+      <c r="G509">
         <v>2.4526921819374152</v>
       </c>
-      <c r="F509">
+      <c r="H509">
         <v>0.14996832027887369</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:8">
       <c r="A510" t="s">
         <v>4</v>
       </c>
@@ -26278,14 +26293,14 @@
       <c r="D510" t="s">
         <v>94</v>
       </c>
-      <c r="E510">
+      <c r="G510">
         <v>2.5136528316479061</v>
       </c>
-      <c r="F510">
+      <c r="H510">
         <v>0.44874954142532325</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:8">
       <c r="A511" t="s">
         <v>4</v>
       </c>
@@ -26298,14 +26313,14 @@
       <c r="D511" t="s">
         <v>26</v>
       </c>
-      <c r="E511">
+      <c r="G511">
         <v>1.2768183271997484</v>
       </c>
-      <c r="F511">
+      <c r="H511">
         <v>0.21671755749592439</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:8">
       <c r="A512" t="s">
         <v>4</v>
       </c>
@@ -26318,14 +26333,14 @@
       <c r="D512" t="s">
         <v>92</v>
       </c>
-      <c r="E512">
+      <c r="G512">
         <v>1.41</v>
       </c>
-      <c r="F512">
+      <c r="H512">
         <v>0.18148913769789657</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:8">
       <c r="A513" t="s">
         <v>4</v>
       </c>
@@ -26338,14 +26353,14 @@
       <c r="D513" t="s">
         <v>93</v>
       </c>
-      <c r="E513">
+      <c r="G513">
         <v>2.06</v>
       </c>
-      <c r="F513">
+      <c r="H513">
         <v>0.15436246831556219</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:8">
       <c r="A514" t="s">
         <v>4</v>
       </c>
@@ -26358,14 +26373,14 @@
       <c r="D514" t="s">
         <v>94</v>
       </c>
-      <c r="E514">
+      <c r="G514">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F514">
+      <c r="H514">
         <v>0.26272606837235474</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:8">
       <c r="A515" t="s">
         <v>4</v>
       </c>
@@ -26378,14 +26393,14 @@
       <c r="D515" t="s">
         <v>26</v>
       </c>
-      <c r="E515">
+      <c r="G515">
         <v>1.39</v>
       </c>
-      <c r="F515">
+      <c r="H515">
         <v>0.25217879221598083</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:8">
       <c r="A516" t="s">
         <v>4</v>
       </c>
@@ -26398,14 +26413,14 @@
       <c r="D516" t="s">
         <v>92</v>
       </c>
-      <c r="E516">
+      <c r="G516">
         <v>1.6711567899420094</v>
       </c>
-      <c r="F516">
+      <c r="H516">
         <v>0.12044743784224493</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:8">
       <c r="A517" t="s">
         <v>4</v>
       </c>
@@ -26418,14 +26433,14 @@
       <c r="D517" t="s">
         <v>93</v>
       </c>
-      <c r="E517">
+      <c r="G517">
         <v>3.1840998524346085</v>
       </c>
-      <c r="F517">
+      <c r="H517">
         <v>0.28608610443001747</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:8">
       <c r="A518" t="s">
         <v>4</v>
       </c>
@@ -26438,14 +26453,14 @@
       <c r="D518" t="s">
         <v>94</v>
       </c>
-      <c r="E518">
+      <c r="G518">
         <v>1.7625989516794118</v>
       </c>
-      <c r="F518">
+      <c r="H518">
         <v>0.859925751035581</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:8">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -26459,7 +26474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:8">
       <c r="A520" t="s">
         <v>4</v>
       </c>
@@ -26472,14 +26487,14 @@
       <c r="D520" t="s">
         <v>92</v>
       </c>
-      <c r="E520">
+      <c r="G520">
         <v>1.7315224570758641</v>
       </c>
-      <c r="F520">
+      <c r="H520">
         <v>0.13767934710419003</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:8">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -26492,14 +26507,14 @@
       <c r="D521" t="s">
         <v>93</v>
       </c>
-      <c r="E521">
+      <c r="G521">
         <v>2.7466381278766776</v>
       </c>
-      <c r="F521">
+      <c r="H521">
         <v>0.14361224756156679</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:8">
       <c r="A522" t="s">
         <v>4</v>
       </c>
@@ -26512,14 +26527,14 @@
       <c r="D522" t="s">
         <v>94</v>
       </c>
-      <c r="E522">
+      <c r="G522">
         <v>2.4096372029210085</v>
       </c>
-      <c r="F522">
+      <c r="H522">
         <v>0.28202355628475728</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:8">
       <c r="A523" t="s">
         <v>4</v>
       </c>
@@ -26532,14 +26547,14 @@
       <c r="D523" t="s">
         <v>26</v>
       </c>
-      <c r="E523">
+      <c r="G523">
         <v>2.181271717046215</v>
       </c>
-      <c r="F523">
+      <c r="H523">
         <v>0.37863698360559983</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:8">
       <c r="A524" t="s">
         <v>4</v>
       </c>
@@ -26552,14 +26567,14 @@
       <c r="D524" t="s">
         <v>92</v>
       </c>
-      <c r="E524">
+      <c r="G524">
         <v>1.050759938760947</v>
       </c>
-      <c r="F524">
+      <c r="H524">
         <v>2.7137334939528121E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:8">
       <c r="A525" t="s">
         <v>4</v>
       </c>
@@ -26572,14 +26587,14 @@
       <c r="D525" t="s">
         <v>93</v>
       </c>
-      <c r="E525">
+      <c r="G525">
         <v>1.4206984988120319</v>
       </c>
-      <c r="F525">
+      <c r="H525">
         <v>0.16617971043196259</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:8">
       <c r="A526" t="s">
         <v>4</v>
       </c>
@@ -26592,14 +26607,14 @@
       <c r="D526" t="s">
         <v>94</v>
       </c>
-      <c r="E526">
+      <c r="G526">
         <v>2.2875969833212282</v>
       </c>
-      <c r="F526">
+      <c r="H526">
         <v>0.41650224130942259</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:8">
       <c r="A527" t="s">
         <v>4</v>
       </c>
@@ -26612,14 +26627,14 @@
       <c r="D527" t="s">
         <v>26</v>
       </c>
-      <c r="E527">
+      <c r="G527">
         <v>2.1860349167126527</v>
       </c>
-      <c r="F527">
+      <c r="H527">
         <v>0.20885329505485128</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:8">
       <c r="A528" t="s">
         <v>4</v>
       </c>
@@ -26632,14 +26647,14 @@
       <c r="D528" t="s">
         <v>92</v>
       </c>
-      <c r="E528">
+      <c r="G528">
         <v>0.83766485015230607</v>
       </c>
-      <c r="F528">
+      <c r="H528">
         <v>7.3077737548721794E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:8">
       <c r="A529" t="s">
         <v>4</v>
       </c>
@@ -26652,14 +26667,14 @@
       <c r="D529" t="s">
         <v>93</v>
       </c>
-      <c r="E529">
+      <c r="G529">
         <v>1.4077704324516038</v>
       </c>
-      <c r="F529">
+      <c r="H529">
         <v>0.14422140753719667</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:8">
       <c r="A530" t="s">
         <v>4</v>
       </c>
@@ -26672,14 +26687,14 @@
       <c r="D530" t="s">
         <v>94</v>
       </c>
-      <c r="E530">
+      <c r="G530">
         <v>1.9167591558402426</v>
       </c>
-      <c r="F530">
+      <c r="H530">
         <v>0.31894042440624976</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:8">
       <c r="A531" t="s">
         <v>4</v>
       </c>
@@ -26692,14 +26707,14 @@
       <c r="D531" t="s">
         <v>26</v>
       </c>
-      <c r="E531">
+      <c r="G531">
         <v>2.0939951674069057</v>
       </c>
-      <c r="F531">
+      <c r="H531">
         <v>0.285520293521349</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:8">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -26712,14 +26727,14 @@
       <c r="D532" t="s">
         <v>92</v>
       </c>
-      <c r="E532">
+      <c r="G532">
         <v>1.1142364478458855</v>
       </c>
-      <c r="F532">
+      <c r="H532">
         <v>0.15158698138475013</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:8">
       <c r="A533" t="s">
         <v>4</v>
       </c>
@@ -26732,14 +26747,14 @@
       <c r="D533" t="s">
         <v>93</v>
       </c>
-      <c r="E533">
+      <c r="G533">
         <v>1.4793274008908819</v>
       </c>
-      <c r="F533">
+      <c r="H533">
         <v>0.15770516148293254</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:8">
       <c r="A534" t="s">
         <v>4</v>
       </c>
@@ -26752,14 +26767,14 @@
       <c r="D534" t="s">
         <v>94</v>
       </c>
-      <c r="E534">
+      <c r="G534">
         <v>2.1775925449268483</v>
       </c>
-      <c r="F534">
+      <c r="H534">
         <v>0.49868759788708555</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:8">
       <c r="A535" t="s">
         <v>4</v>
       </c>
@@ -26773,7 +26788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:8">
       <c r="A536" t="s">
         <v>4</v>
       </c>
@@ -26786,14 +26801,14 @@
       <c r="D536" t="s">
         <v>92</v>
       </c>
-      <c r="E536">
+      <c r="G536">
         <v>0.99992852310875646</v>
       </c>
-      <c r="F536">
+      <c r="H536">
         <v>7.6297413155198238E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:8">
       <c r="A537" t="s">
         <v>4</v>
       </c>
@@ -26806,14 +26821,14 @@
       <c r="D537" t="s">
         <v>93</v>
       </c>
-      <c r="E537">
+      <c r="G537">
         <v>1.4660084136443692</v>
       </c>
-      <c r="F537">
+      <c r="H537">
         <v>0.28844598403297317</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:8">
       <c r="A538" t="s">
         <v>4</v>
       </c>
@@ -26826,14 +26841,14 @@
       <c r="D538" t="s">
         <v>94</v>
       </c>
-      <c r="E538">
+      <c r="G538">
         <v>2.0197967478384835</v>
       </c>
-      <c r="F538">
+      <c r="H538">
         <v>0.80384810771174375</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:8">
       <c r="A539" t="s">
         <v>4</v>
       </c>
@@ -26847,7 +26862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:8">
       <c r="A540" t="s">
         <v>4</v>
       </c>
@@ -26860,14 +26875,14 @@
       <c r="D540" t="s">
         <v>92</v>
       </c>
-      <c r="E540">
+      <c r="G540">
         <v>1.0452059672784977</v>
       </c>
-      <c r="F540">
+      <c r="H540">
         <v>7.8241857824255676E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:8">
       <c r="A541" t="s">
         <v>4</v>
       </c>
@@ -26880,14 +26895,14 @@
       <c r="D541" t="s">
         <v>93</v>
       </c>
-      <c r="E541">
+      <c r="G541">
         <v>1.8560561485416649</v>
       </c>
-      <c r="F541">
+      <c r="H541">
         <v>0.34305106729160079</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:8">
       <c r="A542" t="s">
         <v>4</v>
       </c>
@@ -26900,14 +26915,14 @@
       <c r="D542" t="s">
         <v>94</v>
       </c>
-      <c r="E542">
+      <c r="G542">
         <v>2.4185460798549658</v>
       </c>
-      <c r="F542">
+      <c r="H542">
         <v>0.1935768475611519</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:8">
       <c r="A543" t="s">
         <v>4</v>
       </c>
@@ -26920,14 +26935,14 @@
       <c r="D543" t="s">
         <v>26</v>
       </c>
-      <c r="E543">
+      <c r="G543">
         <v>2.3556571974702374</v>
       </c>
-      <c r="F543">
+      <c r="H543">
         <v>0.10615321442144372</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:8">
       <c r="A544" t="s">
         <v>4</v>
       </c>
@@ -26940,14 +26955,14 @@
       <c r="D544" t="s">
         <v>92</v>
       </c>
-      <c r="E544">
+      <c r="G544">
         <v>0.9876969366409849</v>
       </c>
-      <c r="F544">
+      <c r="H544">
         <v>0.11172955369783268</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:8">
       <c r="A545" t="s">
         <v>4</v>
       </c>
@@ -26960,14 +26975,14 @@
       <c r="D545" t="s">
         <v>93</v>
       </c>
-      <c r="E545">
+      <c r="G545">
         <v>1.6409386614499371</v>
       </c>
-      <c r="F545">
+      <c r="H545">
         <v>0.21430510555191004</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:8">
       <c r="A546" t="s">
         <v>4</v>
       </c>
@@ -26980,14 +26995,14 @@
       <c r="D546" t="s">
         <v>94</v>
       </c>
-      <c r="E546">
+      <c r="G546">
         <v>2.3055752660440532</v>
       </c>
-      <c r="F546">
+      <c r="H546">
         <v>0.4814396433123983</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:8">
       <c r="A547" t="s">
         <v>4</v>
       </c>
@@ -27000,14 +27015,14 @@
       <c r="D547" t="s">
         <v>26</v>
       </c>
-      <c r="E547">
+      <c r="G547">
         <v>2.2759562038538923</v>
       </c>
-      <c r="F547">
+      <c r="H547">
         <v>0.43671030023484692</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:8">
       <c r="A548" t="s">
         <v>168</v>
       </c>
@@ -27022,7 +27037,7 @@
       </c>
       <c r="E548" s="9"/>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:8">
       <c r="A549" t="s">
         <v>168</v>
       </c>
@@ -27037,7 +27052,7 @@
       </c>
       <c r="E549" s="9"/>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:8">
       <c r="A550" t="s">
         <v>168</v>
       </c>
@@ -27052,7 +27067,7 @@
       </c>
       <c r="E550" s="9"/>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:8">
       <c r="A551" t="s">
         <v>168</v>
       </c>
@@ -27067,7 +27082,7 @@
       </c>
       <c r="E551" s="9"/>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:8">
       <c r="A552" t="s">
         <v>168</v>
       </c>
@@ -27082,7 +27097,7 @@
       </c>
       <c r="E552" s="9"/>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:8">
       <c r="A553" t="s">
         <v>168</v>
       </c>
@@ -27097,7 +27112,7 @@
       </c>
       <c r="E553" s="9"/>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:8">
       <c r="A554" t="s">
         <v>168</v>
       </c>
@@ -27109,7 +27124,7 @@
       </c>
       <c r="E554" s="9"/>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:8">
       <c r="A555" t="s">
         <v>168</v>
       </c>
@@ -27121,7 +27136,7 @@
       </c>
       <c r="E555" s="9"/>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:8">
       <c r="A556" t="s">
         <v>168</v>
       </c>
@@ -27133,7 +27148,7 @@
       </c>
       <c r="E556" s="9"/>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:8">
       <c r="A557" t="s">
         <v>168</v>
       </c>
@@ -27145,7 +27160,7 @@
       </c>
       <c r="E557" s="9"/>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:8">
       <c r="A558" t="s">
         <v>168</v>
       </c>
@@ -27157,7 +27172,7 @@
       </c>
       <c r="E558" s="9"/>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:8">
       <c r="A559" t="s">
         <v>168</v>
       </c>
@@ -27169,7 +27184,7 @@
       </c>
       <c r="E559" s="9"/>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:8">
       <c r="A560" t="s">
         <v>168</v>
       </c>
@@ -28498,7 +28513,7 @@
       <c r="E700" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A205:G572">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A205:I572">
     <sortCondition ref="B2:B572"/>
     <sortCondition ref="E2:E572"/>
   </sortState>
@@ -28514,10 +28529,10 @@
       <selection sqref="A1:XFD219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.41015625" customWidth="1"/>
+    <col min="3" max="3" width="28.1171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -36412,14 +36427,14 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.29296875" customWidth="1"/>
+    <col min="3" max="4" width="13.5859375" customWidth="1"/>
+    <col min="5" max="5" width="16.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45.75">
+    <row r="1" spans="1:15" ht="42.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Tests/Validation/Mungbean/ObservedData.xlsx
+++ b/Tests/Validation/Mungbean/ObservedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Tests\Validation\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D3E26-B3F9-4FE9-ABF7-5F44C7D306BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F19007-447D-45FA-9575-D22BA14F6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11626" activeTab="1" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11626" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
   </bookViews>
   <sheets>
     <sheet name="PlantBiomassObserved" sheetId="1" r:id="rId1"/>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D7DBC0-8FFD-4004-98F0-2F6AD6B427E8}">
   <dimension ref="A1:W451"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -4943,10 +4943,6 @@
       <c r="S199">
         <v>27.275245186799204</v>
       </c>
-      <c r="W199">
-        <f>V199-T199</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="200" spans="1:23">
       <c r="A200" t="s">
@@ -5118,10 +5114,6 @@
       </c>
       <c r="S203">
         <v>41.438129381846757</v>
-      </c>
-      <c r="W203">
-        <f>V203-T203</f>
-        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -12393,7 +12385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEDAAD-4E07-4543-B9D3-A0ED902D4CED}">
   <dimension ref="A1:AC352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>

--- a/Tests/Validation/Mungbean/ObservedData.xlsx
+++ b/Tests/Validation/Mungbean/ObservedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Tests\Validation\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4216D7-EADE-459E-B4D7-8D0B43FE57E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC00CEFF-D834-48CF-BF58-5553FC12B56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
   </bookViews>
   <sheets>
     <sheet name="PlantBiomassObserved" sheetId="1" r:id="rId1"/>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D7DBC0-8FFD-4004-98F0-2F6AD6B427E8}">
   <dimension ref="A1:W442"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11686,9 +11686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEDAAD-4E07-4543-B9D3-A0ED902D4CED}">
   <dimension ref="A1:Y350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G304" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="I304" sqref="I304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17844,9 +17844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08346024-0075-43D0-8671-0F4A08F4C0D2}">
   <dimension ref="A1:W537"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G311" sqref="G311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17907,9 +17907,6 @@
       <c r="E2">
         <v>1.71</v>
       </c>
-      <c r="G2">
-        <v>1.71</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -17924,9 +17921,6 @@
       <c r="E3">
         <v>3.25</v>
       </c>
-      <c r="G3">
-        <v>3.25</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -17941,9 +17935,6 @@
       <c r="E4">
         <v>4.9400000000000004</v>
       </c>
-      <c r="G4">
-        <v>4.9400000000000004</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -17958,9 +17949,6 @@
       <c r="E5">
         <v>5.87</v>
       </c>
-      <c r="G5">
-        <v>5.87</v>
-      </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:10">
@@ -17976,9 +17964,6 @@
       <c r="E6">
         <v>5.8</v>
       </c>
-      <c r="G6">
-        <v>5.8</v>
-      </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:10">
@@ -17994,9 +17979,6 @@
       <c r="E7">
         <v>5.44</v>
       </c>
-      <c r="G7">
-        <v>5.44</v>
-      </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:10">
@@ -18013,9 +17995,6 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>3.75</v>
-      </c>
-      <c r="G8">
         <v>3.75</v>
       </c>
       <c r="I8" s="5"/>
@@ -18030,9 +18009,7 @@
       <c r="C9" s="18">
         <v>43784</v>
       </c>
-      <c r="E9" s="9">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="E9" s="9"/>
       <c r="G9" s="9">
         <v>0.28000000000000003</v>
       </c>
@@ -18047,9 +18024,7 @@
       <c r="C10" s="18">
         <v>43789</v>
       </c>
-      <c r="E10" s="9">
-        <v>0.34</v>
-      </c>
+      <c r="E10" s="9"/>
       <c r="G10" s="9">
         <v>0.34</v>
       </c>
@@ -18064,9 +18039,7 @@
       <c r="C11" s="18">
         <v>43798</v>
       </c>
-      <c r="E11" s="9">
-        <v>1.65</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="G11" s="9">
         <v>1.65</v>
       </c>
@@ -18081,9 +18054,7 @@
       <c r="C12" s="18">
         <v>43806</v>
       </c>
-      <c r="E12" s="9">
-        <v>1.18</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="G12" s="9">
         <v>1.18</v>
       </c>
@@ -18098,9 +18069,7 @@
       <c r="C13" s="18">
         <v>43816</v>
       </c>
-      <c r="E13" s="9">
-        <v>2.5099999999999998</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="G13" s="9">
         <v>2.5099999999999998</v>
       </c>
@@ -18115,9 +18084,7 @@
       <c r="C14" s="18">
         <v>43784</v>
       </c>
-      <c r="E14" s="9">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="E14" s="9"/>
       <c r="G14" s="9">
         <v>0.28000000000000003</v>
       </c>
@@ -18132,9 +18099,7 @@
       <c r="C15" s="18">
         <v>43789</v>
       </c>
-      <c r="E15" s="9">
-        <v>0.34</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="G15" s="9">
         <v>0.34</v>
       </c>
@@ -18149,9 +18114,7 @@
       <c r="C16" s="18">
         <v>43798</v>
       </c>
-      <c r="E16" s="9">
-        <v>0.45</v>
-      </c>
+      <c r="E16" s="9"/>
       <c r="G16" s="9">
         <v>0.45</v>
       </c>
@@ -18166,9 +18129,7 @@
       <c r="C17" s="18">
         <v>43806</v>
       </c>
-      <c r="E17" s="9">
-        <v>0.52</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="G17" s="9">
         <v>0.52</v>
       </c>
@@ -18183,9 +18144,7 @@
       <c r="C18" s="18">
         <v>43816</v>
       </c>
-      <c r="E18" s="9">
-        <v>0.84</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="G18" s="9">
         <v>0.84</v>
       </c>
@@ -18200,9 +18159,7 @@
       <c r="C19" s="18">
         <v>43494</v>
       </c>
-      <c r="E19" s="9">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="G19" s="9">
         <v>1.1499999999999999</v>
       </c>
@@ -18217,9 +18174,7 @@
       <c r="C20" s="5">
         <v>43507</v>
       </c>
-      <c r="E20" s="9">
-        <v>1.2</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="G20" s="9">
         <v>1.2</v>
       </c>
@@ -18234,9 +18189,7 @@
       <c r="C21" s="5">
         <v>43515</v>
       </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="G21" s="9">
         <v>1</v>
       </c>
@@ -18252,9 +18205,7 @@
       <c r="C22" s="5">
         <v>43523</v>
       </c>
-      <c r="E22" s="9">
-        <v>0.9</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="G22" s="9">
         <v>0.9</v>
       </c>
@@ -18270,9 +18221,7 @@
       <c r="C23" s="5">
         <v>43531</v>
       </c>
-      <c r="E23" s="9">
-        <v>0.72</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="G23" s="9">
         <v>0.72</v>
       </c>
@@ -18600,12 +18549,6 @@
       <c r="D44" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E44">
-        <v>2.447780174244524</v>
-      </c>
-      <c r="F44">
-        <v>0.5775751949409198</v>
-      </c>
       <c r="G44">
         <v>2.447780174244524</v>
       </c>
@@ -18627,12 +18570,6 @@
       <c r="D45" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E45">
-        <v>2.4661728527559461</v>
-      </c>
-      <c r="F45">
-        <v>0.62652431956608889</v>
-      </c>
       <c r="G45">
         <v>2.4661728527559461</v>
       </c>
@@ -18654,12 +18591,6 @@
       <c r="D46" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E46">
-        <v>3.3262620407913457</v>
-      </c>
-      <c r="F46">
-        <v>0.57893100337083603</v>
-      </c>
       <c r="G46">
         <v>3.3262620407913457</v>
       </c>
@@ -18681,12 +18612,6 @@
       <c r="D47" t="s">
         <v>26</v>
       </c>
-      <c r="E47">
-        <v>3.0243213740840202</v>
-      </c>
-      <c r="F47">
-        <v>0.41519116850850607</v>
-      </c>
       <c r="G47">
         <v>3.0243213740840202</v>
       </c>
@@ -18708,12 +18633,6 @@
       <c r="D48" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E48">
-        <v>1.98689198089673</v>
-      </c>
-      <c r="F48">
-        <v>0.83699491528160364</v>
-      </c>
       <c r="G48">
         <v>1.98689198089673</v>
       </c>
@@ -18750,12 +18669,6 @@
       <c r="D50" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E50">
-        <v>2.4438810385057055</v>
-      </c>
-      <c r="F50">
-        <v>0.32369558782899926</v>
-      </c>
       <c r="G50">
         <v>2.4438810385057055</v>
       </c>
@@ -18777,12 +18690,6 @@
       <c r="D51" t="s">
         <v>26</v>
       </c>
-      <c r="E51">
-        <v>1.8690969519058984</v>
-      </c>
-      <c r="F51">
-        <v>0.48277194505585685</v>
-      </c>
       <c r="G51">
         <v>1.8690969519058984</v>
       </c>
@@ -18804,12 +18711,6 @@
       <c r="D52" t="s">
         <v>83</v>
       </c>
-      <c r="E52">
-        <v>1.8104025124676413</v>
-      </c>
-      <c r="F52">
-        <v>0.13220610653753262</v>
-      </c>
       <c r="G52">
         <v>1.8104025124676413</v>
       </c>
@@ -18831,12 +18732,6 @@
       <c r="D53" t="s">
         <v>84</v>
       </c>
-      <c r="E53">
-        <v>2.2321403114870444</v>
-      </c>
-      <c r="F53">
-        <v>9.4545610549776088E-2</v>
-      </c>
       <c r="G53">
         <v>2.2321403114870444</v>
       </c>
@@ -18858,12 +18753,6 @@
       <c r="D54" t="s">
         <v>85</v>
       </c>
-      <c r="E54">
-        <v>2.4260943224913762</v>
-      </c>
-      <c r="F54">
-        <v>0.50474655100833155</v>
-      </c>
       <c r="G54">
         <v>2.4260943224913762</v>
       </c>
@@ -18885,12 +18774,6 @@
       <c r="D55" t="s">
         <v>26</v>
       </c>
-      <c r="E55">
-        <v>1.0557396726112414</v>
-      </c>
-      <c r="F55">
-        <v>0.28430733360165567</v>
-      </c>
       <c r="G55">
         <v>1.0557396726112414</v>
       </c>
@@ -18912,12 +18795,6 @@
       <c r="D56" t="s">
         <v>83</v>
       </c>
-      <c r="E56">
-        <v>1.4880829759769643</v>
-      </c>
-      <c r="F56">
-        <v>0.12782614008572199</v>
-      </c>
       <c r="G56">
         <v>1.4880829759769643</v>
       </c>
@@ -18939,12 +18816,6 @@
       <c r="D57" t="s">
         <v>84</v>
       </c>
-      <c r="E57">
-        <v>2.1249459208231052</v>
-      </c>
-      <c r="F57">
-        <v>0.18930595918564083</v>
-      </c>
       <c r="G57">
         <v>2.1249459208231052</v>
       </c>
@@ -18966,12 +18837,6 @@
       <c r="D58" t="s">
         <v>85</v>
       </c>
-      <c r="E58">
-        <v>2.7962852594201211</v>
-      </c>
-      <c r="F58">
-        <v>0.47759907101570637</v>
-      </c>
       <c r="G58">
         <v>2.7962852594201211</v>
       </c>
@@ -18993,12 +18858,6 @@
       <c r="D59" t="s">
         <v>26</v>
       </c>
-      <c r="E59">
-        <v>2.1741651741612062</v>
-      </c>
-      <c r="F59">
-        <v>0.13443861621855505</v>
-      </c>
       <c r="G59">
         <v>2.1741651741612062</v>
       </c>
@@ -19020,12 +18879,6 @@
       <c r="D60" t="s">
         <v>83</v>
       </c>
-      <c r="E60">
-        <v>1.6641209456998636</v>
-      </c>
-      <c r="F60">
-        <v>0.24932779658872734</v>
-      </c>
       <c r="G60">
         <v>1.6641209456998636</v>
       </c>
@@ -19047,12 +18900,6 @@
       <c r="D61" t="s">
         <v>84</v>
       </c>
-      <c r="E61">
-        <v>2.4526921819374152</v>
-      </c>
-      <c r="F61">
-        <v>0.14996832027887369</v>
-      </c>
       <c r="G61">
         <v>2.4526921819374152</v>
       </c>
@@ -19074,12 +18921,6 @@
       <c r="D62" t="s">
         <v>85</v>
       </c>
-      <c r="E62">
-        <v>2.5136528316479061</v>
-      </c>
-      <c r="F62">
-        <v>0.44874954142532325</v>
-      </c>
       <c r="G62">
         <v>2.5136528316479061</v>
       </c>
@@ -19101,12 +18942,6 @@
       <c r="D63" t="s">
         <v>26</v>
       </c>
-      <c r="E63">
-        <v>1.2768183271997484</v>
-      </c>
-      <c r="F63">
-        <v>0.21671755749592439</v>
-      </c>
       <c r="G63">
         <v>1.2768183271997484</v>
       </c>
@@ -19128,12 +18963,6 @@
       <c r="D64" t="s">
         <v>83</v>
       </c>
-      <c r="E64">
-        <v>1.41</v>
-      </c>
-      <c r="F64">
-        <v>0.18148913769789657</v>
-      </c>
       <c r="G64">
         <v>1.41</v>
       </c>
@@ -19155,12 +18984,6 @@
       <c r="D65" t="s">
         <v>84</v>
       </c>
-      <c r="E65">
-        <v>2.06</v>
-      </c>
-      <c r="F65">
-        <v>0.15436246831556219</v>
-      </c>
       <c r="G65">
         <v>2.06</v>
       </c>
@@ -19182,12 +19005,6 @@
       <c r="D66" t="s">
         <v>85</v>
       </c>
-      <c r="E66">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F66">
-        <v>0.26272606837235474</v>
-      </c>
       <c r="G66">
         <v>2.2599999999999998</v>
       </c>
@@ -19209,12 +19026,6 @@
       <c r="D67" t="s">
         <v>26</v>
       </c>
-      <c r="E67">
-        <v>1.39</v>
-      </c>
-      <c r="F67">
-        <v>0.25217879221598083</v>
-      </c>
       <c r="G67">
         <v>1.39</v>
       </c>
@@ -19236,12 +19047,6 @@
       <c r="D68" t="s">
         <v>83</v>
       </c>
-      <c r="E68">
-        <v>1.6711567899420094</v>
-      </c>
-      <c r="F68">
-        <v>0.12044743784224493</v>
-      </c>
       <c r="G68">
         <v>1.6711567899420094</v>
       </c>
@@ -19263,12 +19068,6 @@
       <c r="D69" t="s">
         <v>84</v>
       </c>
-      <c r="E69">
-        <v>3.1840998524346085</v>
-      </c>
-      <c r="F69">
-        <v>0.28608610443001747</v>
-      </c>
       <c r="G69">
         <v>3.1840998524346085</v>
       </c>
@@ -19290,12 +19089,6 @@
       <c r="D70" t="s">
         <v>85</v>
       </c>
-      <c r="E70">
-        <v>1.7625989516794118</v>
-      </c>
-      <c r="F70">
-        <v>0.859925751035581</v>
-      </c>
       <c r="G70">
         <v>1.7625989516794118</v>
       </c>
@@ -19332,12 +19125,6 @@
       <c r="D72" t="s">
         <v>83</v>
       </c>
-      <c r="E72">
-        <v>1.7315224570758641</v>
-      </c>
-      <c r="F72">
-        <v>0.13767934710419003</v>
-      </c>
       <c r="G72">
         <v>1.7315224570758641</v>
       </c>
@@ -19359,12 +19146,6 @@
       <c r="D73" t="s">
         <v>84</v>
       </c>
-      <c r="E73">
-        <v>2.7466381278766776</v>
-      </c>
-      <c r="F73">
-        <v>0.14361224756156679</v>
-      </c>
       <c r="G73">
         <v>2.7466381278766776</v>
       </c>
@@ -19386,12 +19167,6 @@
       <c r="D74" t="s">
         <v>85</v>
       </c>
-      <c r="E74">
-        <v>2.4096372029210085</v>
-      </c>
-      <c r="F74">
-        <v>0.28202355628475728</v>
-      </c>
       <c r="G74">
         <v>2.4096372029210085</v>
       </c>
@@ -19413,12 +19188,6 @@
       <c r="D75" t="s">
         <v>26</v>
       </c>
-      <c r="E75">
-        <v>2.181271717046215</v>
-      </c>
-      <c r="F75">
-        <v>0.37863698360559983</v>
-      </c>
       <c r="G75">
         <v>2.181271717046215</v>
       </c>
@@ -19440,12 +19209,6 @@
       <c r="D76" t="s">
         <v>83</v>
       </c>
-      <c r="E76">
-        <v>1.050759938760947</v>
-      </c>
-      <c r="F76">
-        <v>2.7137334939528121E-2</v>
-      </c>
       <c r="G76">
         <v>1.050759938760947</v>
       </c>
@@ -19467,12 +19230,6 @@
       <c r="D77" t="s">
         <v>84</v>
       </c>
-      <c r="E77">
-        <v>1.4206984988120319</v>
-      </c>
-      <c r="F77">
-        <v>0.16617971043196259</v>
-      </c>
       <c r="G77">
         <v>1.4206984988120319</v>
       </c>
@@ -19494,12 +19251,6 @@
       <c r="D78" t="s">
         <v>85</v>
       </c>
-      <c r="E78">
-        <v>2.2875969833212282</v>
-      </c>
-      <c r="F78">
-        <v>0.41650224130942259</v>
-      </c>
       <c r="G78">
         <v>2.2875969833212282</v>
       </c>
@@ -19521,12 +19272,6 @@
       <c r="D79" t="s">
         <v>26</v>
       </c>
-      <c r="E79">
-        <v>2.1860349167126527</v>
-      </c>
-      <c r="F79">
-        <v>0.20885329505485128</v>
-      </c>
       <c r="G79">
         <v>2.1860349167126527</v>
       </c>
@@ -19548,12 +19293,6 @@
       <c r="D80" t="s">
         <v>83</v>
       </c>
-      <c r="E80">
-        <v>0.83766485015230607</v>
-      </c>
-      <c r="F80">
-        <v>7.3077737548721794E-2</v>
-      </c>
       <c r="G80">
         <v>0.83766485015230607</v>
       </c>
@@ -19575,12 +19314,6 @@
       <c r="D81" t="s">
         <v>84</v>
       </c>
-      <c r="E81">
-        <v>1.4077704324516038</v>
-      </c>
-      <c r="F81">
-        <v>0.14422140753719667</v>
-      </c>
       <c r="G81">
         <v>1.4077704324516038</v>
       </c>
@@ -19602,12 +19335,6 @@
       <c r="D82" t="s">
         <v>85</v>
       </c>
-      <c r="E82">
-        <v>1.9167591558402426</v>
-      </c>
-      <c r="F82">
-        <v>0.31894042440624976</v>
-      </c>
       <c r="G82">
         <v>1.9167591558402426</v>
       </c>
@@ -19629,12 +19356,6 @@
       <c r="D83" t="s">
         <v>26</v>
       </c>
-      <c r="E83">
-        <v>2.0939951674069057</v>
-      </c>
-      <c r="F83">
-        <v>0.285520293521349</v>
-      </c>
       <c r="G83">
         <v>2.0939951674069057</v>
       </c>
@@ -19656,12 +19377,6 @@
       <c r="D84" t="s">
         <v>83</v>
       </c>
-      <c r="E84">
-        <v>1.1142364478458855</v>
-      </c>
-      <c r="F84">
-        <v>0.15158698138475013</v>
-      </c>
       <c r="G84">
         <v>1.1142364478458855</v>
       </c>
@@ -19683,12 +19398,6 @@
       <c r="D85" t="s">
         <v>84</v>
       </c>
-      <c r="E85">
-        <v>1.4793274008908819</v>
-      </c>
-      <c r="F85">
-        <v>0.15770516148293254</v>
-      </c>
       <c r="G85">
         <v>1.4793274008908819</v>
       </c>
@@ -19710,12 +19419,6 @@
       <c r="D86" t="s">
         <v>85</v>
       </c>
-      <c r="E86">
-        <v>2.1775925449268483</v>
-      </c>
-      <c r="F86">
-        <v>0.49868759788708555</v>
-      </c>
       <c r="G86">
         <v>2.1775925449268483</v>
       </c>
@@ -19752,12 +19455,6 @@
       <c r="D88" t="s">
         <v>83</v>
       </c>
-      <c r="E88">
-        <v>0.99992852310875646</v>
-      </c>
-      <c r="F88">
-        <v>7.6297413155198238E-2</v>
-      </c>
       <c r="G88">
         <v>0.99992852310875646</v>
       </c>
@@ -19779,12 +19476,6 @@
       <c r="D89" t="s">
         <v>84</v>
       </c>
-      <c r="E89">
-        <v>1.4660084136443692</v>
-      </c>
-      <c r="F89">
-        <v>0.28844598403297317</v>
-      </c>
       <c r="G89">
         <v>1.4660084136443692</v>
       </c>
@@ -19806,12 +19497,6 @@
       <c r="D90" t="s">
         <v>85</v>
       </c>
-      <c r="E90">
-        <v>2.0197967478384835</v>
-      </c>
-      <c r="F90">
-        <v>0.80384810771174375</v>
-      </c>
       <c r="G90">
         <v>2.0197967478384835</v>
       </c>
@@ -19848,12 +19533,6 @@
       <c r="D92" t="s">
         <v>83</v>
       </c>
-      <c r="E92">
-        <v>1.0452059672784977</v>
-      </c>
-      <c r="F92">
-        <v>7.8241857824255676E-2</v>
-      </c>
       <c r="G92">
         <v>1.0452059672784977</v>
       </c>
@@ -19875,12 +19554,6 @@
       <c r="D93" t="s">
         <v>84</v>
       </c>
-      <c r="E93">
-        <v>1.8560561485416649</v>
-      </c>
-      <c r="F93">
-        <v>0.34305106729160079</v>
-      </c>
       <c r="G93">
         <v>1.8560561485416649</v>
       </c>
@@ -19902,12 +19575,6 @@
       <c r="D94" t="s">
         <v>85</v>
       </c>
-      <c r="E94">
-        <v>2.4185460798549658</v>
-      </c>
-      <c r="F94">
-        <v>0.1935768475611519</v>
-      </c>
       <c r="G94">
         <v>2.4185460798549658</v>
       </c>
@@ -19929,12 +19596,6 @@
       <c r="D95" t="s">
         <v>26</v>
       </c>
-      <c r="E95">
-        <v>2.3556571974702374</v>
-      </c>
-      <c r="F95">
-        <v>0.10615321442144372</v>
-      </c>
       <c r="G95">
         <v>2.3556571974702374</v>
       </c>
@@ -19956,12 +19617,6 @@
       <c r="D96" t="s">
         <v>83</v>
       </c>
-      <c r="E96">
-        <v>0.9876969366409849</v>
-      </c>
-      <c r="F96">
-        <v>0.11172955369783268</v>
-      </c>
       <c r="G96">
         <v>0.9876969366409849</v>
       </c>
@@ -19983,12 +19638,6 @@
       <c r="D97" t="s">
         <v>84</v>
       </c>
-      <c r="E97">
-        <v>1.6409386614499371</v>
-      </c>
-      <c r="F97">
-        <v>0.21430510555191004</v>
-      </c>
       <c r="G97">
         <v>1.6409386614499371</v>
       </c>
@@ -20010,12 +19659,6 @@
       <c r="D98" t="s">
         <v>85</v>
       </c>
-      <c r="E98">
-        <v>2.3055752660440532</v>
-      </c>
-      <c r="F98">
-        <v>0.4814396433123983</v>
-      </c>
       <c r="G98">
         <v>2.3055752660440532</v>
       </c>
@@ -20037,12 +19680,6 @@
       <c r="D99" t="s">
         <v>26</v>
       </c>
-      <c r="E99">
-        <v>2.2759562038538923</v>
-      </c>
-      <c r="F99">
-        <v>0.43671030023484692</v>
-      </c>
       <c r="G99">
         <v>2.2759562038538923</v>
       </c>
@@ -20064,12 +19701,6 @@
       <c r="D100" t="s">
         <v>83</v>
       </c>
-      <c r="E100">
-        <v>0.96622880281905799</v>
-      </c>
-      <c r="F100">
-        <v>4.0880356277400498E-2</v>
-      </c>
       <c r="G100">
         <v>0.96622880281905799</v>
       </c>
@@ -20092,12 +19723,6 @@
       <c r="D101" t="s">
         <v>84</v>
       </c>
-      <c r="E101">
-        <v>1.4002835462585033</v>
-      </c>
-      <c r="F101">
-        <v>0.15886962859759848</v>
-      </c>
       <c r="G101">
         <v>1.4002835462585033</v>
       </c>
@@ -20120,12 +19745,6 @@
       <c r="D102" t="s">
         <v>85</v>
       </c>
-      <c r="E102">
-        <v>1.66441845319385</v>
-      </c>
-      <c r="F102">
-        <v>0.17583379349623618</v>
-      </c>
       <c r="G102">
         <v>1.66441845319385</v>
       </c>
@@ -20148,12 +19767,6 @@
       <c r="D103" t="s">
         <v>26</v>
       </c>
-      <c r="E103">
-        <v>0.78100720369700449</v>
-      </c>
-      <c r="F103">
-        <v>0.37140519622151713</v>
-      </c>
       <c r="G103">
         <v>0.78100720369700449</v>
       </c>
@@ -20175,12 +19788,6 @@
       <c r="D104" t="s">
         <v>83</v>
       </c>
-      <c r="E104">
-        <v>0.82775484311594205</v>
-      </c>
-      <c r="F104">
-        <v>6.7844387852640395E-2</v>
-      </c>
       <c r="G104">
         <v>0.82775484311594205</v>
       </c>
@@ -20202,12 +19809,6 @@
       <c r="D105" t="s">
         <v>84</v>
       </c>
-      <c r="E105">
-        <v>1.5800080236707235</v>
-      </c>
-      <c r="F105">
-        <v>0.25289671684019627</v>
-      </c>
       <c r="G105">
         <v>1.5800080236707235</v>
       </c>
@@ -20229,12 +19830,6 @@
       <c r="D106" t="s">
         <v>85</v>
       </c>
-      <c r="E106">
-        <v>1.9561735934840101</v>
-      </c>
-      <c r="F106">
-        <v>0.26033246545539634</v>
-      </c>
       <c r="G106">
         <v>1.9561735934840101</v>
       </c>
@@ -20271,12 +19866,6 @@
       <c r="D108" t="s">
         <v>83</v>
       </c>
-      <c r="E108">
-        <v>1.0931902031267828</v>
-      </c>
-      <c r="F108">
-        <v>2.4854104088608289E-2</v>
-      </c>
       <c r="G108">
         <v>1.0931902031267828</v>
       </c>
@@ -20298,12 +19887,6 @@
       <c r="D109" t="s">
         <v>84</v>
       </c>
-      <c r="E109">
-        <v>1.3982404832221815</v>
-      </c>
-      <c r="F109">
-        <v>0.11975538620022501</v>
-      </c>
       <c r="G109">
         <v>1.3982404832221815</v>
       </c>
@@ -20325,12 +19908,6 @@
       <c r="D110" t="s">
         <v>85</v>
       </c>
-      <c r="E110">
-        <v>1.9677386739325455</v>
-      </c>
-      <c r="F110">
-        <v>0.17337960915672457</v>
-      </c>
       <c r="G110">
         <v>1.9677386739325455</v>
       </c>
@@ -20352,12 +19929,6 @@
       <c r="D111" t="s">
         <v>26</v>
       </c>
-      <c r="E111">
-        <v>0.83596317323475655</v>
-      </c>
-      <c r="F111">
-        <v>0.19158441531463238</v>
-      </c>
       <c r="G111">
         <v>0.83596317323475655</v>
       </c>
@@ -20379,12 +19950,6 @@
       <c r="D112" t="s">
         <v>83</v>
       </c>
-      <c r="E112">
-        <v>0.65238201774364601</v>
-      </c>
-      <c r="F112">
-        <v>0.23103113757015439</v>
-      </c>
       <c r="G112">
         <v>0.65238201774364601</v>
       </c>
@@ -20406,12 +19971,6 @@
       <c r="D113" t="s">
         <v>84</v>
       </c>
-      <c r="E113">
-        <v>1.322065035018541</v>
-      </c>
-      <c r="F113">
-        <v>3.1777304566605977E-2</v>
-      </c>
       <c r="G113">
         <v>1.322065035018541</v>
       </c>
@@ -20433,12 +19992,6 @@
       <c r="D114" t="s">
         <v>85</v>
       </c>
-      <c r="E114">
-        <v>1.6140011723961478</v>
-      </c>
-      <c r="F114">
-        <v>0.15184846405330343</v>
-      </c>
       <c r="G114">
         <v>1.6140011723961478</v>
       </c>
@@ -20459,12 +20012,6 @@
       <c r="D115" t="s">
         <v>26</v>
       </c>
-      <c r="E115">
-        <v>1.2903872794954769</v>
-      </c>
-      <c r="F115">
-        <v>7.0819146580885062E-2</v>
-      </c>
       <c r="G115">
         <v>1.2903872794954769</v>
       </c>
@@ -20485,12 +20032,6 @@
       <c r="D116" t="s">
         <v>83</v>
       </c>
-      <c r="E116">
-        <v>1.0423316931013793</v>
-      </c>
-      <c r="F116">
-        <v>0.16128622281304383</v>
-      </c>
       <c r="G116">
         <v>1.0423316931013793</v>
       </c>
@@ -20511,12 +20052,6 @@
       <c r="D117" t="s">
         <v>84</v>
       </c>
-      <c r="E117">
-        <v>1.5886898634361486</v>
-      </c>
-      <c r="F117">
-        <v>0.14715812069371489</v>
-      </c>
       <c r="G117">
         <v>1.5886898634361486</v>
       </c>
@@ -20537,12 +20072,6 @@
       <c r="D118" t="s">
         <v>85</v>
       </c>
-      <c r="E118">
-        <v>2.5116967645589212</v>
-      </c>
-      <c r="F118">
-        <v>0.13352913619326223</v>
-      </c>
       <c r="G118">
         <v>2.5116967645589212</v>
       </c>
@@ -20577,12 +20106,6 @@
       <c r="D120" t="s">
         <v>83</v>
       </c>
-      <c r="E120">
-        <v>1.0024207971203101</v>
-      </c>
-      <c r="F120">
-        <v>7.5024946274899224E-2</v>
-      </c>
       <c r="G120">
         <v>1.0024207971203101</v>
       </c>
@@ -20603,12 +20126,6 @@
       <c r="D121" t="s">
         <v>84</v>
       </c>
-      <c r="E121">
-        <v>1.5843678896254811</v>
-      </c>
-      <c r="F121">
-        <v>0.17192019226568991</v>
-      </c>
       <c r="G121">
         <v>1.5843678896254811</v>
       </c>
@@ -20629,12 +20146,6 @@
       <c r="D122" t="s">
         <v>85</v>
       </c>
-      <c r="E122">
-        <v>2.2370442718237076</v>
-      </c>
-      <c r="F122">
-        <v>0.21392717621150564</v>
-      </c>
       <c r="G122">
         <v>2.2370442718237076</v>
       </c>
@@ -20655,12 +20166,6 @@
       <c r="D123" t="s">
         <v>26</v>
       </c>
-      <c r="E123">
-        <v>1.7406813847796052</v>
-      </c>
-      <c r="F123">
-        <v>0.37906990625783948</v>
-      </c>
       <c r="G123">
         <v>1.7406813847796052</v>
       </c>
@@ -20681,12 +20186,6 @@
       <c r="D124" t="s">
         <v>83</v>
       </c>
-      <c r="E124">
-        <v>0.58392758499814479</v>
-      </c>
-      <c r="F124">
-        <v>1.2742294195184746E-2</v>
-      </c>
       <c r="G124">
         <v>0.58392758499814479</v>
       </c>
@@ -20707,12 +20206,6 @@
       <c r="D125" t="s">
         <v>84</v>
       </c>
-      <c r="E125">
-        <v>1.2233964483417186</v>
-      </c>
-      <c r="F125">
-        <v>9.4884071762134911E-2</v>
-      </c>
       <c r="G125">
         <v>1.2233964483417186</v>
       </c>
@@ -20733,12 +20226,6 @@
       <c r="D126" t="s">
         <v>85</v>
       </c>
-      <c r="E126">
-        <v>1.6277835385805448</v>
-      </c>
-      <c r="F126">
-        <v>0.28375599411512148</v>
-      </c>
       <c r="G126">
         <v>1.6277835385805448</v>
       </c>
@@ -20759,12 +20246,6 @@
       <c r="D127" t="s">
         <v>26</v>
       </c>
-      <c r="E127">
-        <v>1.1362536494428879</v>
-      </c>
-      <c r="F127">
-        <v>0.26160615917091551</v>
-      </c>
       <c r="G127">
         <v>1.1362536494428879</v>
       </c>
@@ -20785,12 +20266,6 @@
       <c r="D128" t="s">
         <v>83</v>
       </c>
-      <c r="E128">
-        <v>0.64985886678286375</v>
-      </c>
-      <c r="F128">
-        <v>1.7008384548612469E-2</v>
-      </c>
       <c r="G128">
         <v>0.64985886678286375</v>
       </c>
@@ -20811,12 +20286,6 @@
       <c r="D129" t="s">
         <v>84</v>
       </c>
-      <c r="E129">
-        <v>1.1756272808913713</v>
-      </c>
-      <c r="F129">
-        <v>6.4850594121052887E-2</v>
-      </c>
       <c r="G129">
         <v>1.1756272808913713</v>
       </c>
@@ -20837,12 +20306,6 @@
       <c r="D130" t="s">
         <v>85</v>
       </c>
-      <c r="E130">
-        <v>1.5882081998524853</v>
-      </c>
-      <c r="F130">
-        <v>0.19916182968827001</v>
-      </c>
       <c r="G130">
         <v>1.5882081998524853</v>
       </c>
@@ -20877,12 +20340,6 @@
       <c r="D132" t="s">
         <v>83</v>
       </c>
-      <c r="E132">
-        <v>0.60862608046886979</v>
-      </c>
-      <c r="F132">
-        <v>4.579052350286357E-2</v>
-      </c>
       <c r="G132">
         <v>0.60862608046886979</v>
       </c>
@@ -20903,12 +20360,6 @@
       <c r="D133" t="s">
         <v>84</v>
       </c>
-      <c r="E133">
-        <v>1.204509542679786</v>
-      </c>
-      <c r="F133">
-        <v>9.6949957270107773E-2</v>
-      </c>
       <c r="G133">
         <v>1.204509542679786</v>
       </c>
@@ -20929,12 +20380,6 @@
       <c r="D134" t="s">
         <v>85</v>
       </c>
-      <c r="E134">
-        <v>1.9465277338797671</v>
-      </c>
-      <c r="F134">
-        <v>6.0153019960565629E-2</v>
-      </c>
       <c r="G134">
         <v>1.9465277338797671</v>
       </c>
@@ -20955,12 +20400,6 @@
       <c r="D135" t="s">
         <v>26</v>
       </c>
-      <c r="E135">
-        <v>1.3747041205321371</v>
-      </c>
-      <c r="F135">
-        <v>0.26204290201678598</v>
-      </c>
       <c r="G135">
         <v>1.3747041205321371</v>
       </c>
@@ -20981,12 +20420,6 @@
       <c r="D136" t="s">
         <v>83</v>
       </c>
-      <c r="E136">
-        <v>0.62908422408389331</v>
-      </c>
-      <c r="F136">
-        <v>5.1522623458706764E-2</v>
-      </c>
       <c r="G136">
         <v>0.62908422408389331</v>
       </c>
@@ -21007,12 +20440,6 @@
       <c r="D137" t="s">
         <v>84</v>
       </c>
-      <c r="E137">
-        <v>1.270422811330941</v>
-      </c>
-      <c r="F137">
-        <v>6.8235740707156461E-2</v>
-      </c>
       <c r="G137">
         <v>1.270422811330941</v>
       </c>
@@ -21033,12 +20460,6 @@
       <c r="D138" t="s">
         <v>85</v>
       </c>
-      <c r="E138">
-        <v>1.9908966021306609</v>
-      </c>
-      <c r="F138">
-        <v>0.462538215425574</v>
-      </c>
       <c r="G138">
         <v>1.9908966021306609</v>
       </c>
@@ -21059,12 +20480,6 @@
       <c r="D139" t="s">
         <v>26</v>
       </c>
-      <c r="E139">
-        <v>1.3464610473727248</v>
-      </c>
-      <c r="F139">
-        <v>0.23887717611423617</v>
-      </c>
       <c r="G139">
         <v>1.3464610473727248</v>
       </c>
@@ -21085,12 +20500,6 @@
       <c r="D140" t="s">
         <v>83</v>
       </c>
-      <c r="E140">
-        <v>0.52078898963693532</v>
-      </c>
-      <c r="F140">
-        <v>2.4414183159713127E-2</v>
-      </c>
       <c r="G140">
         <v>0.52078898963693532</v>
       </c>
@@ -21111,12 +20520,6 @@
       <c r="D141" t="s">
         <v>84</v>
       </c>
-      <c r="E141">
-        <v>1.1349185906262929</v>
-      </c>
-      <c r="F141">
-        <v>7.3914242199807439E-2</v>
-      </c>
       <c r="G141">
         <v>1.1349185906262929</v>
       </c>
@@ -21137,12 +20540,6 @@
       <c r="D142" t="s">
         <v>85</v>
       </c>
-      <c r="E142">
-        <v>1.6285828038926069</v>
-      </c>
-      <c r="F142">
-        <v>0.1596675865828478</v>
-      </c>
       <c r="G142">
         <v>1.6285828038926069</v>
       </c>
@@ -21163,12 +20560,6 @@
       <c r="D143" t="s">
         <v>26</v>
       </c>
-      <c r="E143">
-        <v>1.4652932358268815</v>
-      </c>
-      <c r="F143">
-        <v>0.30976277716391826</v>
-      </c>
       <c r="G143">
         <v>1.4652932358268815</v>
       </c>
@@ -21189,12 +20580,6 @@
       <c r="D144" t="s">
         <v>83</v>
       </c>
-      <c r="E144">
-        <v>0.73662447472526882</v>
-      </c>
-      <c r="F144">
-        <v>1.6683925775133418E-2</v>
-      </c>
       <c r="G144">
         <v>0.73662447472526882</v>
       </c>
@@ -21215,12 +20600,6 @@
       <c r="D145" t="s">
         <v>84</v>
       </c>
-      <c r="E145">
-        <v>1.1410043354758912</v>
-      </c>
-      <c r="F145">
-        <v>5.1034931828306748E-2</v>
-      </c>
       <c r="G145">
         <v>1.1410043354758912</v>
       </c>
@@ -21241,12 +20620,6 @@
       <c r="D146" t="s">
         <v>85</v>
       </c>
-      <c r="E146">
-        <v>2.3421080382356516</v>
-      </c>
-      <c r="F146">
-        <v>0.15238843179587683</v>
-      </c>
       <c r="G146">
         <v>2.3421080382356516</v>
       </c>
@@ -21267,12 +20640,6 @@
       <c r="D147" t="s">
         <v>26</v>
       </c>
-      <c r="E147">
-        <v>1.7437975689599017</v>
-      </c>
-      <c r="F147">
-        <v>0.339017721945647</v>
-      </c>
       <c r="G147">
         <v>1.7437975689599017</v>
       </c>
@@ -21293,12 +20660,6 @@
       <c r="D148" t="s">
         <v>83</v>
       </c>
-      <c r="E148">
-        <v>0.2968543259996741</v>
-      </c>
-      <c r="F148">
-        <v>1.9884868977167601E-3</v>
-      </c>
       <c r="G148">
         <v>0.2968543259996741</v>
       </c>
@@ -21319,12 +20680,6 @@
       <c r="D149" t="s">
         <v>84</v>
       </c>
-      <c r="E149">
-        <v>1.0026925175537538</v>
-      </c>
-      <c r="F149">
-        <v>0.14550010557983059</v>
-      </c>
       <c r="G149">
         <v>1.0026925175537538</v>
       </c>
@@ -21345,12 +20700,6 @@
       <c r="D150" t="s">
         <v>85</v>
       </c>
-      <c r="E150">
-        <v>1.2587501754213317</v>
-      </c>
-      <c r="F150">
-        <v>0.1691537750513952</v>
-      </c>
       <c r="G150">
         <v>1.2587501754213317</v>
       </c>
@@ -21371,12 +20720,6 @@
       <c r="D151" t="s">
         <v>26</v>
       </c>
-      <c r="E151">
-        <v>0.94982675603097011</v>
-      </c>
-      <c r="F151">
-        <v>0.18292425517668898</v>
-      </c>
       <c r="G151">
         <v>0.94982675603097011</v>
       </c>
@@ -21397,12 +20740,6 @@
       <c r="D152" t="s">
         <v>83</v>
       </c>
-      <c r="E152">
-        <v>0.17417940880657612</v>
-      </c>
-      <c r="F152">
-        <v>2.6737212438492509E-2</v>
-      </c>
       <c r="G152">
         <v>0.17417940880657612</v>
       </c>
@@ -21423,12 +20760,6 @@
       <c r="D153" t="s">
         <v>84</v>
       </c>
-      <c r="E153">
-        <v>1.2033982798835332</v>
-      </c>
-      <c r="F153">
-        <v>4.0911184192888334E-2</v>
-      </c>
       <c r="G153">
         <v>1.2033982798835332</v>
       </c>
@@ -21449,12 +20780,6 @@
       <c r="D154" t="s">
         <v>85</v>
       </c>
-      <c r="E154">
-        <v>1.3825715633860443</v>
-      </c>
-      <c r="F154">
-        <v>9.9820449612275944E-2</v>
-      </c>
       <c r="G154">
         <v>1.3825715633860443</v>
       </c>
@@ -21475,12 +20800,6 @@
       <c r="D155" t="s">
         <v>26</v>
       </c>
-      <c r="E155">
-        <v>1.5618703708034771</v>
-      </c>
-      <c r="F155">
-        <v>0.15193507160190126</v>
-      </c>
       <c r="G155">
         <v>1.5618703708034771</v>
       </c>
@@ -21501,12 +20820,6 @@
       <c r="D156" t="s">
         <v>83</v>
       </c>
-      <c r="E156">
-        <v>0.2652077999132913</v>
-      </c>
-      <c r="F156">
-        <v>3.2240706125142495E-2</v>
-      </c>
       <c r="G156">
         <v>0.2652077999132913</v>
       </c>
@@ -21527,12 +20840,6 @@
       <c r="D157" t="s">
         <v>84</v>
       </c>
-      <c r="E157">
-        <v>1.317926534726364</v>
-      </c>
-      <c r="F157">
-        <v>0.16255424600881579</v>
-      </c>
       <c r="G157">
         <v>1.317926534726364</v>
       </c>
@@ -21553,12 +20860,6 @@
       <c r="D158" t="s">
         <v>85</v>
       </c>
-      <c r="E158">
-        <v>1.2926989119117176</v>
-      </c>
-      <c r="F158">
-        <v>9.6337056824822825E-2</v>
-      </c>
       <c r="G158">
         <v>1.2926989119117176</v>
       </c>
@@ -21579,12 +20880,6 @@
       <c r="D159" t="s">
         <v>26</v>
       </c>
-      <c r="E159">
-        <v>1.8530678262760696</v>
-      </c>
-      <c r="F159">
-        <v>0.25443084816614792</v>
-      </c>
       <c r="G159">
         <v>1.8530678262760696</v>
       </c>
@@ -21605,12 +20900,6 @@
       <c r="D160" t="s">
         <v>83</v>
       </c>
-      <c r="E160">
-        <v>0.23843375477488393</v>
-      </c>
-      <c r="F160">
-        <v>3.8994110067380731E-2</v>
-      </c>
       <c r="G160">
         <v>0.23843375477488393</v>
       </c>
@@ -21631,12 +20920,6 @@
       <c r="D161" t="s">
         <v>84</v>
       </c>
-      <c r="E161">
-        <v>1.1189514977404149</v>
-      </c>
-      <c r="F161">
-        <v>0.10389032381322315</v>
-      </c>
       <c r="G161">
         <v>1.1189514977404149</v>
       </c>
@@ -21657,12 +20940,6 @@
       <c r="D162" t="s">
         <v>85</v>
       </c>
-      <c r="E162">
-        <v>1.1954748383666809</v>
-      </c>
-      <c r="F162">
-        <v>0.21099331963978221</v>
-      </c>
       <c r="G162">
         <v>1.1954748383666809</v>
       </c>
@@ -21683,12 +20960,6 @@
       <c r="D163" t="s">
         <v>26</v>
       </c>
-      <c r="E163">
-        <v>1.8434262658797802</v>
-      </c>
-      <c r="F163">
-        <v>0.35198847194728033</v>
-      </c>
       <c r="G163">
         <v>1.8434262658797802</v>
       </c>
@@ -21709,12 +20980,6 @@
       <c r="D164" t="s">
         <v>83</v>
       </c>
-      <c r="E164">
-        <v>0.15196071336252528</v>
-      </c>
-      <c r="F164">
-        <v>9.3274704276723828E-3</v>
-      </c>
       <c r="G164">
         <v>0.15196071336252528</v>
       </c>
@@ -21735,12 +21000,6 @@
       <c r="D165" t="s">
         <v>84</v>
       </c>
-      <c r="E165">
-        <v>0.85013338025323215</v>
-      </c>
-      <c r="F165">
-        <v>6.2096489155438986E-2</v>
-      </c>
       <c r="G165">
         <v>0.85013338025323215</v>
       </c>
@@ -21761,12 +21020,6 @@
       <c r="D166" t="s">
         <v>85</v>
       </c>
-      <c r="E166">
-        <v>1.1509496535762522</v>
-      </c>
-      <c r="F166">
-        <v>7.5310800087011229E-2</v>
-      </c>
       <c r="G166">
         <v>1.1509496535762522</v>
       </c>
@@ -21787,12 +21040,6 @@
       <c r="D167" t="s">
         <v>26</v>
       </c>
-      <c r="E167">
-        <v>1.4985130747999864</v>
-      </c>
-      <c r="F167">
-        <v>0.21940645519328292</v>
-      </c>
       <c r="G167">
         <v>1.4985130747999864</v>
       </c>
@@ -21813,12 +21060,6 @@
       <c r="D168" t="s">
         <v>83</v>
       </c>
-      <c r="E168">
-        <v>0.25479996322279042</v>
-      </c>
-      <c r="F168">
-        <v>3.5307017449797896E-2</v>
-      </c>
       <c r="G168">
         <v>0.25479996322279042</v>
       </c>
@@ -21839,12 +21080,6 @@
       <c r="D169" t="s">
         <v>84</v>
       </c>
-      <c r="E169">
-        <v>1.771459646727896</v>
-      </c>
-      <c r="F169">
-        <v>0.47229336627794255</v>
-      </c>
       <c r="G169">
         <v>1.771459646727896</v>
       </c>
@@ -21865,12 +21100,6 @@
       <c r="D170" t="s">
         <v>85</v>
       </c>
-      <c r="E170">
-        <v>1.0954702032306727</v>
-      </c>
-      <c r="F170">
-        <v>0.10688013237814073</v>
-      </c>
       <c r="G170">
         <v>1.0954702032306727</v>
       </c>
@@ -21891,12 +21120,6 @@
       <c r="D171" t="s">
         <v>26</v>
       </c>
-      <c r="E171">
-        <v>1.6548819447356782</v>
-      </c>
-      <c r="F171">
-        <v>0.12858285098420077</v>
-      </c>
       <c r="G171">
         <v>1.6548819447356782</v>
       </c>
@@ -21917,9 +21140,6 @@
       <c r="E172">
         <v>0.01</v>
       </c>
-      <c r="G172">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
@@ -21934,9 +21154,6 @@
       <c r="E173">
         <v>0.1</v>
       </c>
-      <c r="G173">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
@@ -21951,9 +21168,6 @@
       <c r="E174">
         <v>0.23</v>
       </c>
-      <c r="G174">
-        <v>0.23</v>
-      </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
@@ -21969,9 +21183,6 @@
         <v>26</v>
       </c>
       <c r="E175">
-        <v>0.25</v>
-      </c>
-      <c r="G175">
         <v>0.25</v>
       </c>
     </row>
@@ -21989,11 +21200,8 @@
       <c r="E176">
         <v>0.254001231148063</v>
       </c>
-      <c r="G176">
-        <v>0.254001231148063</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="13" t="s">
         <v>4</v>
       </c>
@@ -22007,11 +21215,8 @@
       <c r="E177">
         <v>0.26728242239573302</v>
       </c>
-      <c r="G177">
-        <v>0.26728242239573302</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="13" t="s">
         <v>4</v>
       </c>
@@ -22025,11 +21230,8 @@
       <c r="E178">
         <v>0.299934938191245</v>
       </c>
-      <c r="G178">
-        <v>0.299934938191245</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -22045,11 +21247,8 @@
       <c r="E179">
         <v>0.3</v>
       </c>
-      <c r="G179">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -22062,11 +21261,8 @@
       <c r="E180">
         <v>0.3</v>
       </c>
-      <c r="G180">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -22080,11 +21276,8 @@
       <c r="E181">
         <v>0.30707988169823902</v>
       </c>
-      <c r="G181">
-        <v>0.30707988169823902</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="13" t="s">
         <v>4</v>
       </c>
@@ -22098,11 +21291,8 @@
       <c r="E182">
         <v>0.31846314987621299</v>
       </c>
-      <c r="G182">
-        <v>0.31846314987621299</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -22116,11 +21306,8 @@
       <c r="E183">
         <v>0.331889603745253</v>
       </c>
-      <c r="G183">
-        <v>0.331889603745253</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -22133,11 +21320,8 @@
       <c r="E184">
         <v>0.4</v>
       </c>
-      <c r="G184">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="13" t="s">
         <v>4</v>
       </c>
@@ -22151,11 +21335,8 @@
       <c r="E185">
         <v>0.41734819504904702</v>
       </c>
-      <c r="G185">
-        <v>0.41734819504904702</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -22169,11 +21350,8 @@
       <c r="E186">
         <v>0.45931789081596902</v>
       </c>
-      <c r="G186">
-        <v>0.45931789081596902</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -22186,11 +21364,8 @@
       <c r="E187">
         <v>0.47</v>
       </c>
-      <c r="G187">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -22204,11 +21379,8 @@
       <c r="E188">
         <v>0.49749800260709098</v>
       </c>
-      <c r="G188">
-        <v>0.49749800260709098</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -22221,11 +21393,8 @@
       <c r="E189">
         <v>0.5</v>
       </c>
-      <c r="G189">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -22238,11 +21407,8 @@
       <c r="E190">
         <v>0.5</v>
       </c>
-      <c r="G190">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -22255,11 +21421,8 @@
       <c r="E191">
         <v>0.5</v>
       </c>
-      <c r="G191">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -22272,11 +21435,8 @@
       <c r="E192">
         <v>0.5</v>
       </c>
-      <c r="G192">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -22289,11 +21449,8 @@
       <c r="E193">
         <v>0.5</v>
       </c>
-      <c r="G193">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -22306,11 +21463,8 @@
       <c r="E194">
         <v>0.5</v>
       </c>
-      <c r="G194">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -22324,11 +21478,8 @@
       <c r="E195">
         <v>0.59790297496615097</v>
       </c>
-      <c r="G195">
-        <v>0.59790297496615097</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -22341,11 +21492,8 @@
       <c r="E196">
         <v>0.65</v>
       </c>
-      <c r="G196">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -22358,11 +21506,8 @@
       <c r="E197">
         <v>0.8</v>
       </c>
-      <c r="G197">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -22376,11 +21521,8 @@
       <c r="E198">
         <v>0.94470957979280601</v>
       </c>
-      <c r="G198">
-        <v>0.94470957979280601</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -22394,11 +21536,8 @@
       <c r="E199">
         <v>0.95392899546816701</v>
       </c>
-      <c r="G199">
-        <v>0.95392899546816701</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -22411,11 +21550,8 @@
       <c r="E200">
         <v>1</v>
       </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -22428,11 +21564,8 @@
       <c r="E201">
         <v>1</v>
       </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -22445,11 +21578,8 @@
       <c r="E202">
         <v>1</v>
       </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="13" t="s">
         <v>4</v>
       </c>
@@ -22463,11 +21593,8 @@
       <c r="E203">
         <v>1.02112006406083</v>
       </c>
-      <c r="G203">
-        <v>1.02112006406083</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="13" t="s">
         <v>4</v>
       </c>
@@ -22481,11 +21608,8 @@
       <c r="E204">
         <v>1.02442320204191</v>
       </c>
-      <c r="G204">
-        <v>1.02442320204191</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -22498,11 +21622,8 @@
       <c r="E205">
         <v>1.18</v>
       </c>
-      <c r="G205">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -22516,11 +21637,8 @@
       <c r="E206">
         <v>1.2251797653588701</v>
       </c>
-      <c r="G206">
-        <v>1.2251797653588701</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -22533,11 +21651,8 @@
       <c r="E207">
         <v>1.3</v>
       </c>
-      <c r="G207">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -22548,9 +21663,6 @@
         <v>35508</v>
       </c>
       <c r="E208">
-        <v>1.45</v>
-      </c>
-      <c r="G208">
         <v>1.45</v>
       </c>
     </row>
@@ -22568,9 +21680,6 @@
       <c r="E209">
         <v>1.46865332196192</v>
       </c>
-      <c r="G209">
-        <v>1.46865332196192</v>
-      </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="13" t="s">
@@ -22586,9 +21695,6 @@
       <c r="E210">
         <v>1.4764526299984699</v>
       </c>
-      <c r="G210">
-        <v>1.4764526299984699</v>
-      </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
@@ -22603,9 +21709,6 @@
       <c r="E211">
         <v>1.5</v>
       </c>
-      <c r="G211">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
@@ -22620,9 +21723,6 @@
       <c r="E212">
         <v>1.5</v>
       </c>
-      <c r="G212">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
@@ -22637,9 +21737,6 @@
       <c r="E213">
         <v>1.5</v>
       </c>
-      <c r="G213">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
@@ -22654,9 +21751,6 @@
       <c r="E214">
         <v>1.5</v>
       </c>
-      <c r="G214">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
@@ -22669,9 +21763,6 @@
         <v>35509</v>
       </c>
       <c r="E215">
-        <v>1.5</v>
-      </c>
-      <c r="G215">
         <v>1.5</v>
       </c>
     </row>
@@ -22689,9 +21780,6 @@
       <c r="E216">
         <v>1.5284593061601499</v>
       </c>
-      <c r="G216">
-        <v>1.5284593061601499</v>
-      </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
@@ -22704,9 +21792,6 @@
         <v>35472</v>
       </c>
       <c r="E217">
-        <v>1.6</v>
-      </c>
-      <c r="G217">
         <v>1.6</v>
       </c>
     </row>
@@ -22724,9 +21809,6 @@
       <c r="E218">
         <v>1.7011661078023801</v>
       </c>
-      <c r="G218">
-        <v>1.7011661078023801</v>
-      </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
@@ -22742,9 +21824,6 @@
       <c r="E219">
         <v>1.70721724626099</v>
       </c>
-      <c r="G219">
-        <v>1.70721724626099</v>
-      </c>
       <c r="I219" s="25"/>
     </row>
     <row r="220" spans="1:9">
@@ -22761,9 +21840,6 @@
       <c r="E220">
         <v>1.7347112827973801</v>
       </c>
-      <c r="G220">
-        <v>1.7347112827973801</v>
-      </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
@@ -22778,9 +21854,6 @@
       <c r="E221">
         <v>1.8</v>
       </c>
-      <c r="G221">
-        <v>1.8</v>
-      </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
@@ -22795,9 +21868,6 @@
       <c r="E222">
         <v>1.8</v>
       </c>
-      <c r="G222">
-        <v>1.8</v>
-      </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
@@ -22812,9 +21882,6 @@
       <c r="E223">
         <v>1.8</v>
       </c>
-      <c r="G223">
-        <v>1.8</v>
-      </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
@@ -22829,11 +21896,8 @@
       <c r="E224">
         <v>1.8</v>
       </c>
-      <c r="G224">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -22847,11 +21911,8 @@
       <c r="E225">
         <v>1.8557835415307999</v>
       </c>
-      <c r="G225">
-        <v>1.8557835415307999</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -22864,11 +21925,8 @@
       <c r="E226">
         <v>1.89</v>
       </c>
-      <c r="G226">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -22881,11 +21939,8 @@
       <c r="E227">
         <v>1.9</v>
       </c>
-      <c r="G227">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="13" t="s">
         <v>4</v>
       </c>
@@ -22899,11 +21954,8 @@
       <c r="E228">
         <v>1.9267804414193199</v>
       </c>
-      <c r="G228">
-        <v>1.9267804414193199</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -22916,11 +21968,8 @@
       <c r="E229">
         <v>1.99</v>
       </c>
-      <c r="G229">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -22933,11 +21982,8 @@
       <c r="E230">
         <v>2</v>
       </c>
-      <c r="G230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -22950,11 +21996,8 @@
       <c r="E231">
         <v>2</v>
       </c>
-      <c r="G231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -22967,11 +22010,8 @@
       <c r="E232">
         <v>2</v>
       </c>
-      <c r="G232">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -22984,11 +22024,8 @@
       <c r="E233">
         <v>2</v>
       </c>
-      <c r="G233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -23001,11 +22038,8 @@
       <c r="E234">
         <v>2</v>
       </c>
-      <c r="G234">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -23018,11 +22052,8 @@
       <c r="E235">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G235">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -23035,11 +22066,8 @@
       <c r="E236">
         <v>2.1</v>
       </c>
-      <c r="G236">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -23052,11 +22080,8 @@
       <c r="E237">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G237">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -23069,11 +22094,8 @@
       <c r="E238">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G238">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -23086,11 +22108,8 @@
       <c r="E239">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G239">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -23103,9 +22122,6 @@
       <c r="E240">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G240">
-        <v>2.2000000000000002</v>
-      </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
@@ -23120,9 +22136,6 @@
       <c r="E241">
         <v>2.23</v>
       </c>
-      <c r="G241">
-        <v>2.23</v>
-      </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
@@ -23135,9 +22148,6 @@
         <v>35467</v>
       </c>
       <c r="E242">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G242">
         <v>2.2400000000000002</v>
       </c>
     </row>
@@ -23155,9 +22165,6 @@
       <c r="E243">
         <v>2.2764235383736402</v>
       </c>
-      <c r="G243">
-        <v>2.2764235383736402</v>
-      </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="13" t="s">
@@ -23173,9 +22180,6 @@
       <c r="E244">
         <v>2.3899733384117301</v>
       </c>
-      <c r="G244">
-        <v>2.3899733384117301</v>
-      </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="13" t="s">
@@ -23191,9 +22195,6 @@
       <c r="E245">
         <v>2.4365409136877298</v>
       </c>
-      <c r="G245">
-        <v>2.4365409136877298</v>
-      </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
@@ -23208,9 +22209,6 @@
       <c r="E246">
         <v>2.5</v>
       </c>
-      <c r="G246">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
@@ -23225,9 +22223,6 @@
       <c r="E247">
         <v>2.5</v>
       </c>
-      <c r="G247">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
@@ -23242,9 +22237,6 @@
       <c r="E248">
         <v>2.5</v>
       </c>
-      <c r="G248">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
@@ -23259,9 +22251,6 @@
       <c r="E249">
         <v>2.5</v>
       </c>
-      <c r="G249">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
@@ -23276,9 +22265,6 @@
       <c r="E250">
         <v>2.5</v>
       </c>
-      <c r="G250">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
@@ -23291,9 +22277,6 @@
         <v>35467</v>
       </c>
       <c r="E251">
-        <v>2.5</v>
-      </c>
-      <c r="G251">
         <v>2.5</v>
       </c>
     </row>
@@ -23311,9 +22294,6 @@
       <c r="E252">
         <v>2.5615178675357901</v>
       </c>
-      <c r="G252">
-        <v>2.5615178675357901</v>
-      </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" t="s">
@@ -23329,9 +22309,6 @@
       <c r="E253">
         <v>2.6019090870863</v>
       </c>
-      <c r="G253">
-        <v>2.6019090870863</v>
-      </c>
       <c r="I253" s="25"/>
     </row>
     <row r="254" spans="1:9">
@@ -23348,9 +22325,6 @@
       <c r="E254">
         <v>2.6639506460249001</v>
       </c>
-      <c r="G254">
-        <v>2.6639506460249001</v>
-      </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="13" t="s">
@@ -23366,9 +22340,6 @@
       <c r="E255">
         <v>2.6772934287572898</v>
       </c>
-      <c r="G255">
-        <v>2.6772934287572898</v>
-      </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
@@ -23384,9 +22355,6 @@
       <c r="E256">
         <v>2.7925885048244998</v>
       </c>
-      <c r="G256">
-        <v>2.7925885048244998</v>
-      </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" t="s">
@@ -23399,9 +22367,6 @@
         <v>35476</v>
       </c>
       <c r="E257">
-        <v>2.8</v>
-      </c>
-      <c r="G257">
         <v>2.8</v>
       </c>
     </row>
@@ -23419,9 +22384,6 @@
       <c r="E258">
         <v>2.8068345878362</v>
       </c>
-      <c r="G258">
-        <v>2.8068345878362</v>
-      </c>
       <c r="I258" s="25"/>
     </row>
     <row r="259" spans="1:9">
@@ -23440,9 +22402,6 @@
       <c r="E259">
         <v>2.8742805665381801</v>
       </c>
-      <c r="G259">
-        <v>2.8742805665381801</v>
-      </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" t="s">
@@ -23455,9 +22414,6 @@
         <v>35482</v>
       </c>
       <c r="E260">
-        <v>2.9</v>
-      </c>
-      <c r="G260">
         <v>2.9</v>
       </c>
     </row>
@@ -23475,9 +22431,6 @@
       <c r="E261">
         <v>2.95582586427656</v>
       </c>
-      <c r="G261">
-        <v>2.95582586427656</v>
-      </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" t="s">
@@ -23492,9 +22445,6 @@
       <c r="E262">
         <v>3</v>
       </c>
-      <c r="G262">
-        <v>3</v>
-      </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
@@ -23509,9 +22459,6 @@
       <c r="E263">
         <v>3</v>
       </c>
-      <c r="G263">
-        <v>3</v>
-      </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
@@ -23526,9 +22473,6 @@
       <c r="E264">
         <v>3</v>
       </c>
-      <c r="G264">
-        <v>3</v>
-      </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
@@ -23541,9 +22485,6 @@
         <v>35467</v>
       </c>
       <c r="E265">
-        <v>3.1</v>
-      </c>
-      <c r="G265">
         <v>3.1</v>
       </c>
     </row>
@@ -23561,9 +22502,6 @@
       <c r="E266">
         <v>3.1388783088935401</v>
       </c>
-      <c r="G266">
-        <v>3.1388783088935401</v>
-      </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" t="s">
@@ -23576,9 +22514,6 @@
         <v>35497</v>
       </c>
       <c r="E267">
-        <v>3.15</v>
-      </c>
-      <c r="G267">
         <v>3.15</v>
       </c>
     </row>
@@ -23596,9 +22531,6 @@
       <c r="E268">
         <v>3.2144725849712099</v>
       </c>
-      <c r="G268">
-        <v>3.2144725849712099</v>
-      </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" t="s">
@@ -23614,9 +22546,6 @@
       <c r="E269">
         <v>3.24008762688339</v>
       </c>
-      <c r="G269">
-        <v>3.24008762688339</v>
-      </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="13" t="s">
@@ -23632,9 +22561,6 @@
       <c r="E270">
         <v>3.2918772834192298</v>
       </c>
-      <c r="G270">
-        <v>3.2918772834192298</v>
-      </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" t="s">
@@ -23649,9 +22575,6 @@
       <c r="E271">
         <v>3.3</v>
       </c>
-      <c r="G271">
-        <v>3.3</v>
-      </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" t="s">
@@ -23666,11 +22589,8 @@
       <c r="E272">
         <v>3.4</v>
       </c>
-      <c r="G272">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="13" t="s">
         <v>4</v>
       </c>
@@ -23684,11 +22604,8 @@
       <c r="E273">
         <v>3.4918106670184299</v>
       </c>
-      <c r="G273">
-        <v>3.4918106670184299</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -23701,11 +22618,8 @@
       <c r="E274">
         <v>3.5</v>
       </c>
-      <c r="G274">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -23718,11 +22632,8 @@
       <c r="E275">
         <v>3.5</v>
       </c>
-      <c r="G275">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -23735,11 +22646,8 @@
       <c r="E276">
         <v>3.69</v>
       </c>
-      <c r="G276">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -23752,11 +22660,8 @@
       <c r="E277">
         <v>3.7</v>
       </c>
-      <c r="G277">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -23769,11 +22674,8 @@
       <c r="E278">
         <v>3.8</v>
       </c>
-      <c r="G278">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="13" t="s">
         <v>4</v>
       </c>
@@ -23789,11 +22691,8 @@
       <c r="E279">
         <v>3.84895352416128</v>
       </c>
-      <c r="G279">
-        <v>3.84895352416128</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" s="13" t="s">
         <v>4</v>
       </c>
@@ -23807,11 +22706,8 @@
       <c r="E280">
         <v>3.88403983784593</v>
       </c>
-      <c r="G280">
-        <v>3.88403983784593</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" s="13" t="s">
         <v>4</v>
       </c>
@@ -23825,11 +22721,8 @@
       <c r="E281">
         <v>3.9349171586364502</v>
       </c>
-      <c r="G281">
-        <v>3.9349171586364502</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -23842,11 +22735,8 @@
       <c r="E282">
         <v>4</v>
       </c>
-      <c r="G282">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -23859,11 +22749,8 @@
       <c r="E283">
         <v>4</v>
       </c>
-      <c r="G283">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -23876,11 +22763,8 @@
       <c r="E284">
         <v>4</v>
       </c>
-      <c r="G284">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -23894,11 +22778,8 @@
       <c r="E285">
         <v>4.0374810848562399</v>
       </c>
-      <c r="G285">
-        <v>4.0374810848562399</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -23911,11 +22792,8 @@
       <c r="E286">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G286">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -23928,11 +22806,8 @@
       <c r="E287">
         <v>4.2</v>
       </c>
-      <c r="G287">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" s="13" t="s">
         <v>4</v>
       </c>
@@ -23946,11 +22821,8 @@
       <c r="E288">
         <v>4.2255760807465199</v>
       </c>
-      <c r="G288">
-        <v>4.2255760807465199</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="13" t="s">
         <v>4</v>
       </c>
@@ -23964,11 +22836,8 @@
       <c r="E289">
         <v>4.2681870119977097</v>
       </c>
-      <c r="G289">
-        <v>4.2681870119977097</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -23981,11 +22850,8 @@
       <c r="E290">
         <v>4.5</v>
       </c>
-      <c r="G290">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -23998,11 +22864,8 @@
       <c r="E291">
         <v>4.5</v>
       </c>
-      <c r="G291">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -24015,11 +22878,8 @@
       <c r="E292">
         <v>4.5</v>
       </c>
-      <c r="G292">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -24032,11 +22892,8 @@
       <c r="E293">
         <v>4.5</v>
       </c>
-      <c r="G293">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -24050,11 +22907,8 @@
       <c r="E294">
         <v>4.5781631940402701</v>
       </c>
-      <c r="G294">
-        <v>4.5781631940402701</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -24067,11 +22921,8 @@
       <c r="E295">
         <v>4.66</v>
       </c>
-      <c r="G295">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="13" t="s">
         <v>4</v>
       </c>
@@ -24085,11 +22936,8 @@
       <c r="E296">
         <v>4.7007540781778996</v>
       </c>
-      <c r="G296">
-        <v>4.7007540781778996</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="13" t="s">
         <v>4</v>
       </c>
@@ -24103,11 +22951,8 @@
       <c r="E297">
         <v>4.89663873547895</v>
       </c>
-      <c r="G297">
-        <v>4.89663873547895</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="13" t="s">
         <v>4</v>
       </c>
@@ -24121,11 +22966,8 @@
       <c r="E298">
         <v>4.9392890120036901</v>
       </c>
-      <c r="G298">
-        <v>4.9392890120036901</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -24138,11 +22980,8 @@
       <c r="E299">
         <v>4.95</v>
       </c>
-      <c r="G299">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -24155,11 +22994,8 @@
       <c r="E300">
         <v>5</v>
       </c>
-      <c r="G300">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="13" t="s">
         <v>4</v>
       </c>
@@ -24173,11 +23009,8 @@
       <c r="E301">
         <v>5.2134393000043904</v>
       </c>
-      <c r="G301">
-        <v>5.2134393000043904</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="13" t="s">
         <v>4</v>
       </c>
@@ -24191,11 +23024,8 @@
       <c r="E302">
         <v>5.7748047990858797</v>
       </c>
-      <c r="G302">
-        <v>5.7748047990858797</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="13" t="s">
         <v>4</v>
       </c>
@@ -24209,11 +23039,8 @@
       <c r="E303">
         <v>5.9304731126060704</v>
       </c>
-      <c r="G303">
-        <v>5.9304731126060704</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="13" t="s">
         <v>4</v>
       </c>
@@ -24227,9 +23054,6 @@
       <c r="E304">
         <v>6.0611788230813097</v>
       </c>
-      <c r="G304">
-        <v>6.0611788230813097</v>
-      </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="13" t="s">
@@ -24245,9 +23069,6 @@
       <c r="E305">
         <v>6.3527899447724199</v>
       </c>
-      <c r="G305">
-        <v>6.3527899447724199</v>
-      </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="s">
@@ -24260,9 +23081,6 @@
         <v>35487</v>
       </c>
       <c r="E306">
-        <v>6.5</v>
-      </c>
-      <c r="G306">
         <v>6.5</v>
       </c>
     </row>

--- a/Tests/Validation/Mungbean/ObservedData.xlsx
+++ b/Tests/Validation/Mungbean/ObservedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Tests\Validation\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5302C1A7-D2A7-4E36-9195-CCAE8BB9337B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5173A-B973-4F64-B98A-50B8093E17AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
   </bookViews>
   <sheets>
     <sheet name="PlantBiomassObserved" sheetId="1" r:id="rId1"/>
@@ -33528,7 +33528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449093F9-5AE0-419F-A266-8D65D7DEDEE7}">
   <dimension ref="A1:L831"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -49089,8 +49089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BE5525-9C9B-4599-A191-AEACAF439893}">
   <dimension ref="A1:H831"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53755,9 +53755,7 @@
         <v>35911</v>
       </c>
       <c r="D348" s="5"/>
-      <c r="E348" s="8">
-        <v>0</v>
-      </c>
+      <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
     <row r="349" spans="1:6">
@@ -56690,9 +56688,6 @@
         <v>35964</v>
       </c>
       <c r="D569" s="5"/>
-      <c r="E569">
-        <v>0</v>
-      </c>
     </row>
     <row r="570" spans="1:6">
       <c r="A570" t="s">
@@ -58453,9 +58448,6 @@
       <c r="G700">
         <v>0.41457809879442498</v>
       </c>
-      <c r="H700">
-        <v>8.25</v>
-      </c>
     </row>
     <row r="701" spans="1:8">
       <c r="A701" t="s">
@@ -58487,9 +58479,6 @@
       <c r="G702">
         <v>0.52796780204857408</v>
       </c>
-      <c r="H702">
-        <v>8.4</v>
-      </c>
     </row>
     <row r="703" spans="1:8">
       <c r="A703" t="s">
@@ -58521,11 +58510,8 @@
       <c r="G704">
         <v>0.71239034243875055</v>
       </c>
-      <c r="H704">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="705" spans="1:8">
+    </row>
+    <row r="705" spans="1:7">
       <c r="A705" t="s">
         <v>4</v>
       </c>
@@ -58536,7 +58522,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:7">
       <c r="A706" t="s">
         <v>4</v>
       </c>
@@ -58547,7 +58533,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:7">
       <c r="A707" t="s">
         <v>4</v>
       </c>
@@ -58566,11 +58552,8 @@
       <c r="G707">
         <v>0.44370598373247128</v>
       </c>
-      <c r="H707">
-        <v>12.049999999999999</v>
-      </c>
-    </row>
-    <row r="708" spans="1:8">
+    </row>
+    <row r="708" spans="1:7">
       <c r="A708" t="s">
         <v>4</v>
       </c>
@@ -58589,11 +58572,8 @@
       <c r="G708">
         <v>0.58040933831219732</v>
       </c>
-      <c r="H708">
-        <v>6.7499999999999991</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8">
+    </row>
+    <row r="709" spans="1:7">
       <c r="A709" t="s">
         <v>4</v>
       </c>
@@ -58612,11 +58592,8 @@
       <c r="G709">
         <v>0.34910600109422335</v>
       </c>
-      <c r="H709">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="710" spans="1:8">
+    </row>
+    <row r="710" spans="1:7">
       <c r="A710" t="s">
         <v>4</v>
       </c>
@@ -58635,11 +58612,8 @@
       <c r="G710">
         <v>0.24874685927665507</v>
       </c>
-      <c r="H710">
-        <v>10.35</v>
-      </c>
-    </row>
-    <row r="711" spans="1:8">
+    </row>
+    <row r="711" spans="1:7">
       <c r="A711" t="s">
         <v>4</v>
       </c>
@@ -58658,11 +58632,8 @@
       <c r="G711">
         <v>0.50249378105604425</v>
       </c>
-      <c r="H711">
-        <v>11.100000000000001</v>
-      </c>
-    </row>
-    <row r="712" spans="1:8">
+    </row>
+    <row r="712" spans="1:7">
       <c r="A712" t="s">
         <v>4</v>
       </c>
@@ -58676,7 +58647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:7">
       <c r="A713" t="s">
         <v>4</v>
       </c>
@@ -58690,7 +58661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:7">
       <c r="A714" t="s">
         <v>4</v>
       </c>
@@ -58704,7 +58675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:7">
       <c r="A715" t="s">
         <v>4</v>
       </c>
@@ -58718,7 +58689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:7">
       <c r="A716" t="s">
         <v>4</v>
       </c>
@@ -58732,7 +58703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:7">
       <c r="A717" t="s">
         <v>4</v>
       </c>
@@ -58746,7 +58717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:7">
       <c r="A718" t="s">
         <v>4</v>
       </c>
@@ -58760,7 +58731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:7">
       <c r="A719" t="s">
         <v>4</v>
       </c>
@@ -58774,7 +58745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:7">
       <c r="A720" t="s">
         <v>4</v>
       </c>
@@ -59236,7 +59207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="753" spans="1:8">
+    <row r="753" spans="1:7">
       <c r="A753" t="s">
         <v>4</v>
       </c>
@@ -59250,7 +59221,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:7">
       <c r="A754" t="s">
         <v>4</v>
       </c>
@@ -59264,7 +59235,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="755" spans="1:8">
+    <row r="755" spans="1:7">
       <c r="A755" t="s">
         <v>4</v>
       </c>
@@ -59278,7 +59249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:7">
       <c r="A756" t="s">
         <v>4</v>
       </c>
@@ -59292,7 +59263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:7">
       <c r="A757" t="s">
         <v>4</v>
       </c>
@@ -59306,7 +59277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:7">
       <c r="A758" t="s">
         <v>4</v>
       </c>
@@ -59320,7 +59291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:7">
       <c r="A759" t="s">
         <v>4</v>
       </c>
@@ -59334,7 +59305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:7">
       <c r="A760" t="s">
         <v>4</v>
       </c>
@@ -59353,11 +59324,8 @@
       <c r="G760">
         <v>0.10897247358851676</v>
       </c>
-      <c r="H760">
-        <v>5.5500000000000007</v>
-      </c>
-    </row>
-    <row r="761" spans="1:8">
+    </row>
+    <row r="761" spans="1:7">
       <c r="A761" t="s">
         <v>4</v>
       </c>
@@ -59376,11 +59344,8 @@
       <c r="G761">
         <v>0.76852130744697178</v>
       </c>
-      <c r="H761">
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="762" spans="1:8">
+    </row>
+    <row r="762" spans="1:7">
       <c r="A762" t="s">
         <v>4</v>
       </c>
@@ -59394,7 +59359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:7">
       <c r="A763" t="s">
         <v>4</v>
       </c>
@@ -59408,7 +59373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:7">
       <c r="A764" t="s">
         <v>4</v>
       </c>
@@ -59427,11 +59392,8 @@
       <c r="G764">
         <v>0.12247448713915883</v>
       </c>
-      <c r="H764">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="765" spans="1:8">
+    </row>
+    <row r="765" spans="1:7">
       <c r="A765" t="s">
         <v>4</v>
       </c>
@@ -59450,11 +59412,8 @@
       <c r="G765">
         <v>0.68328251843582888</v>
       </c>
-      <c r="H765">
-        <v>13.049999999999999</v>
-      </c>
-    </row>
-    <row r="766" spans="1:8">
+    </row>
+    <row r="766" spans="1:7">
       <c r="A766" t="s">
         <v>4</v>
       </c>
@@ -59468,7 +59427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:7">
       <c r="A767" t="s">
         <v>4</v>
       </c>
@@ -59482,7 +59441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:7">
       <c r="A768" t="s">
         <v>4</v>
       </c>
@@ -59501,11 +59460,8 @@
       <c r="G768">
         <v>0.25860201081971496</v>
       </c>
-      <c r="H768">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="769" spans="1:8">
+    </row>
+    <row r="769" spans="1:7">
       <c r="A769" t="s">
         <v>4</v>
       </c>
@@ -59524,11 +59480,8 @@
       <c r="G769">
         <v>0.96136296475368743</v>
       </c>
-      <c r="H769">
-        <v>6.9249999999999998</v>
-      </c>
-    </row>
-    <row r="770" spans="1:8">
+    </row>
+    <row r="770" spans="1:7">
       <c r="A770" t="s">
         <v>4</v>
       </c>
@@ -59542,7 +59495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:7">
       <c r="A771" t="s">
         <v>4</v>
       </c>
@@ -59556,7 +59509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:7">
       <c r="A772" t="s">
         <v>4</v>
       </c>
@@ -59575,11 +59528,8 @@
       <c r="G772">
         <v>0.13479150566708564</v>
       </c>
-      <c r="H772">
-        <v>5.335</v>
-      </c>
-    </row>
-    <row r="773" spans="1:8">
+    </row>
+    <row r="773" spans="1:7">
       <c r="A773" t="s">
         <v>4</v>
       </c>
@@ -59598,11 +59548,8 @@
       <c r="G773">
         <v>0.91472331882378766</v>
       </c>
-      <c r="H773">
-        <v>7.9249999999999989</v>
-      </c>
-    </row>
-    <row r="774" spans="1:8">
+    </row>
+    <row r="774" spans="1:7">
       <c r="A774" t="s">
         <v>4</v>
       </c>
@@ -59616,7 +59563,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:7">
       <c r="A775" t="s">
         <v>4</v>
       </c>
@@ -59630,7 +59577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:7">
       <c r="A776" t="s">
         <v>4</v>
       </c>
@@ -59649,11 +59596,8 @@
       <c r="G776">
         <v>0.70887234393788967</v>
       </c>
-      <c r="H776">
-        <v>5.8666666666666671</v>
-      </c>
-    </row>
-    <row r="777" spans="1:8">
+    </row>
+    <row r="777" spans="1:7">
       <c r="A777" t="s">
         <v>4</v>
       </c>
@@ -59672,11 +59616,8 @@
       <c r="G777">
         <v>1.6416455159382026</v>
       </c>
-      <c r="H777">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="778" spans="1:8">
+    </row>
+    <row r="778" spans="1:7">
       <c r="A778" t="s">
         <v>4</v>
       </c>
@@ -59690,7 +59631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:7">
       <c r="A779" t="s">
         <v>4</v>
       </c>
@@ -59704,7 +59645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:7">
       <c r="A780" t="s">
         <v>4</v>
       </c>
@@ -59723,11 +59664,8 @@
       <c r="G780">
         <v>0.12990381056766589</v>
       </c>
-      <c r="H780">
-        <v>4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="781" spans="1:8">
+    </row>
+    <row r="781" spans="1:7">
       <c r="A781" t="s">
         <v>4</v>
       </c>
@@ -59746,11 +59684,8 @@
       <c r="G781">
         <v>0.48653751140071555</v>
       </c>
-      <c r="H781">
-        <v>7.0749999999999993</v>
-      </c>
-    </row>
-    <row r="782" spans="1:8">
+    </row>
+    <row r="782" spans="1:7">
       <c r="A782" t="s">
         <v>4</v>
       </c>
@@ -59764,7 +59699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:7">
       <c r="A783" t="s">
         <v>4</v>
       </c>
@@ -59778,7 +59713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:7">
       <c r="A784" t="s">
         <v>4</v>
       </c>
@@ -59797,11 +59732,8 @@
       <c r="G784">
         <v>7.0710678118654655E-2</v>
       </c>
-      <c r="H784">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="785" spans="1:8">
+    </row>
+    <row r="785" spans="1:7">
       <c r="A785" t="s">
         <v>4</v>
       </c>
@@ -59820,11 +59752,8 @@
       <c r="G785">
         <v>1.0965856099730658</v>
       </c>
-      <c r="H785">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="786" spans="1:8">
+    </row>
+    <row r="786" spans="1:7">
       <c r="A786" t="s">
         <v>4</v>
       </c>
@@ -59843,11 +59772,8 @@
       <c r="G786">
         <v>1.1578664376775096</v>
       </c>
-      <c r="H786">
-        <v>10.797499999999999</v>
-      </c>
-    </row>
-    <row r="787" spans="1:8">
+    </row>
+    <row r="787" spans="1:7">
       <c r="A787" t="s">
         <v>4</v>
       </c>
@@ -59866,11 +59792,8 @@
       <c r="G787">
         <v>1.0280442597476069</v>
       </c>
-      <c r="H787">
-        <v>12.95</v>
-      </c>
-    </row>
-    <row r="788" spans="1:8">
+    </row>
+    <row r="788" spans="1:7">
       <c r="A788" t="s">
         <v>4</v>
       </c>
@@ -59889,11 +59812,8 @@
       <c r="G788">
         <v>0.42720018726587772</v>
       </c>
-      <c r="H788">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="789" spans="1:8">
+    </row>
+    <row r="789" spans="1:7">
       <c r="A789" t="s">
         <v>4</v>
       </c>
@@ -59912,11 +59832,8 @@
       <c r="G789">
         <v>0.25495097567963915</v>
       </c>
-      <c r="H789">
-        <v>7.8000000000000007</v>
-      </c>
-    </row>
-    <row r="790" spans="1:8">
+    </row>
+    <row r="790" spans="1:7">
       <c r="A790" t="s">
         <v>4</v>
       </c>
@@ -59935,11 +59852,8 @@
       <c r="G790">
         <v>1.1453711188955278</v>
       </c>
-      <c r="H790">
-        <v>10.350000000000001</v>
-      </c>
-    </row>
-    <row r="791" spans="1:8">
+    </row>
+    <row r="791" spans="1:7">
       <c r="A791" t="s">
         <v>4</v>
       </c>
@@ -59958,11 +59872,8 @@
       <c r="G791">
         <v>0.73950997288745202</v>
       </c>
-      <c r="H791">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="792" spans="1:8">
+    </row>
+    <row r="792" spans="1:7">
       <c r="A792" t="s">
         <v>4</v>
       </c>
@@ -59981,11 +59892,8 @@
       <c r="G792">
         <v>0.42646805273080135</v>
       </c>
-      <c r="H792">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="793" spans="1:8">
+    </row>
+    <row r="793" spans="1:7">
       <c r="A793" t="s">
         <v>4</v>
       </c>
@@ -60004,11 +59912,8 @@
       <c r="G793">
         <v>0.31917863337009256</v>
       </c>
-      <c r="H793">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="794" spans="1:8">
+    </row>
+    <row r="794" spans="1:7">
       <c r="A794" t="s">
         <v>4</v>
       </c>
@@ -60027,11 +59932,8 @@
       <c r="G794">
         <v>1.3066392960568749</v>
       </c>
-      <c r="H794">
-        <v>10.734999999999999</v>
-      </c>
-    </row>
-    <row r="795" spans="1:8">
+    </row>
+    <row r="795" spans="1:7">
       <c r="A795" t="s">
         <v>4</v>
       </c>
@@ -60050,11 +59952,8 @@
       <c r="G795">
         <v>0.25495097567963931</v>
       </c>
-      <c r="H795">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="796" spans="1:8">
+    </row>
+    <row r="796" spans="1:7">
       <c r="A796" t="s">
         <v>4</v>
       </c>
@@ -60073,11 +59972,8 @@
       <c r="G796">
         <v>0.26562295750848708</v>
       </c>
-      <c r="H796">
-        <v>6.3666666666666671</v>
-      </c>
-    </row>
-    <row r="797" spans="1:8">
+    </row>
+    <row r="797" spans="1:7">
       <c r="A797" t="s">
         <v>4</v>
       </c>
@@ -60096,11 +59992,8 @@
       <c r="G797">
         <v>4.330127018922178E-2</v>
       </c>
-      <c r="H797">
-        <v>6.5500000000000007</v>
-      </c>
-    </row>
-    <row r="798" spans="1:8">
+    </row>
+    <row r="798" spans="1:7">
       <c r="A798" t="s">
         <v>4</v>
       </c>
@@ -60119,11 +60012,8 @@
       <c r="G798">
         <v>1.1822991372744869</v>
       </c>
-      <c r="H798">
-        <v>9.5250000000000004</v>
-      </c>
-    </row>
-    <row r="799" spans="1:8">
+    </row>
+    <row r="799" spans="1:7">
       <c r="A799" t="s">
         <v>4</v>
       </c>
@@ -60142,11 +60032,8 @@
       <c r="G799">
         <v>1.1233320969330469</v>
       </c>
-      <c r="H799">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="800" spans="1:8">
+    </row>
+    <row r="800" spans="1:7">
       <c r="A800" t="s">
         <v>4</v>
       </c>
@@ -60165,11 +60052,8 @@
       <c r="G800">
         <v>0.35000000000000009</v>
       </c>
-      <c r="H800">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="801" spans="1:8">
+    </row>
+    <row r="801" spans="1:7">
       <c r="A801" t="s">
         <v>4</v>
       </c>
@@ -60188,11 +60072,8 @@
       <c r="G801">
         <v>0.47631397208144094</v>
       </c>
-      <c r="H801">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="802" spans="1:8">
+    </row>
+    <row r="802" spans="1:7">
       <c r="A802" t="s">
         <v>4</v>
       </c>
@@ -60211,11 +60092,8 @@
       <c r="G802">
         <v>0.5117372372614678</v>
       </c>
-      <c r="H802">
-        <v>11.549999999999999</v>
-      </c>
-    </row>
-    <row r="803" spans="1:8">
+    </row>
+    <row r="803" spans="1:7">
       <c r="A803" t="s">
         <v>4</v>
       </c>
@@ -60234,11 +60112,8 @@
       <c r="G803">
         <v>2.0425657884141697</v>
       </c>
-      <c r="H803">
-        <v>15.59</v>
-      </c>
-    </row>
-    <row r="804" spans="1:8">
+    </row>
+    <row r="804" spans="1:7">
       <c r="A804" t="s">
         <v>4</v>
       </c>
@@ -60257,11 +60132,8 @@
       <c r="G804">
         <v>0.3112474899497184</v>
       </c>
-      <c r="H804">
-        <v>6.4499999999999993</v>
-      </c>
-    </row>
-    <row r="805" spans="1:8">
+    </row>
+    <row r="805" spans="1:7">
       <c r="A805" t="s">
         <v>4</v>
       </c>
@@ -60280,11 +60152,8 @@
       <c r="G805">
         <v>0.2165063509461097</v>
       </c>
-      <c r="H805">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="806" spans="1:8">
+    </row>
+    <row r="806" spans="1:7">
       <c r="A806" t="s">
         <v>4</v>
       </c>
@@ -60303,11 +60172,8 @@
       <c r="G806">
         <v>1.2852528934026968</v>
       </c>
-      <c r="H806">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="807" spans="1:8">
+    </row>
+    <row r="807" spans="1:7">
       <c r="A807" t="s">
         <v>4</v>
       </c>
@@ -60326,11 +60192,8 @@
       <c r="G807">
         <v>1.7997829730275812</v>
       </c>
-      <c r="H807">
-        <v>12.324999999999999</v>
-      </c>
-    </row>
-    <row r="808" spans="1:8">
+    </row>
+    <row r="808" spans="1:7">
       <c r="A808" t="s">
         <v>4</v>
       </c>
@@ -60349,11 +60212,8 @@
       <c r="G808">
         <v>0.4023369234857751</v>
       </c>
-      <c r="H808">
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="809" spans="1:8">
+    </row>
+    <row r="809" spans="1:7">
       <c r="A809" t="s">
         <v>4</v>
       </c>
@@ -60372,11 +60232,8 @@
       <c r="G809">
         <v>0.40311288741492768</v>
       </c>
-      <c r="H809">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="810" spans="1:8">
+    </row>
+    <row r="810" spans="1:7">
       <c r="A810" t="s">
         <v>4</v>
       </c>
@@ -60395,11 +60252,8 @@
       <c r="G810">
         <v>0.86998563206526625</v>
       </c>
-      <c r="H810">
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="811" spans="1:8">
+    </row>
+    <row r="811" spans="1:7">
       <c r="A811" t="s">
         <v>4</v>
       </c>
@@ -60418,11 +60272,8 @@
       <c r="G811">
         <v>0.59160797830996281</v>
       </c>
-      <c r="H811">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="812" spans="1:8">
+    </row>
+    <row r="812" spans="1:7">
       <c r="A812" t="s">
         <v>4</v>
       </c>
@@ -60441,11 +60292,8 @@
       <c r="G812">
         <v>0.2861380785564886</v>
       </c>
-      <c r="H812">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="813" spans="1:8">
+    </row>
+    <row r="813" spans="1:7">
       <c r="A813" t="s">
         <v>4</v>
       </c>
@@ -60464,11 +60312,8 @@
       <c r="G813">
         <v>0.57608593109014572</v>
       </c>
-      <c r="H813">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="814" spans="1:8">
+    </row>
+    <row r="814" spans="1:7">
       <c r="A814" t="s">
         <v>4</v>
       </c>
@@ -60487,11 +60332,8 @@
       <c r="G814">
         <v>1.6023420358962095</v>
       </c>
-      <c r="H814">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="815" spans="1:8">
+    </row>
+    <row r="815" spans="1:7">
       <c r="A815" t="s">
         <v>4</v>
       </c>
@@ -60510,11 +60352,8 @@
       <c r="G815">
         <v>1.5370807355178191</v>
       </c>
-      <c r="H815">
-        <v>14.8125</v>
-      </c>
-    </row>
-    <row r="816" spans="1:8">
+    </row>
+    <row r="816" spans="1:7">
       <c r="A816" t="s">
         <v>4</v>
       </c>
@@ -60533,11 +60372,8 @@
       <c r="G816">
         <v>0.18027756377320001</v>
       </c>
-      <c r="H816">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="817" spans="1:8">
+    </row>
+    <row r="817" spans="1:7">
       <c r="A817" t="s">
         <v>4</v>
       </c>
@@ -60556,11 +60392,8 @@
       <c r="G817">
         <v>0.25495097567963931</v>
       </c>
-      <c r="H817">
-        <v>8.2000000000000011</v>
-      </c>
-    </row>
-    <row r="818" spans="1:8">
+    </row>
+    <row r="818" spans="1:7">
       <c r="A818" t="s">
         <v>4</v>
       </c>
@@ -60579,11 +60412,8 @@
       <c r="G818">
         <v>0.54025456962435869</v>
       </c>
-      <c r="H818">
-        <v>10.35</v>
-      </c>
-    </row>
-    <row r="819" spans="1:8">
+    </row>
+    <row r="819" spans="1:7">
       <c r="A819" t="s">
         <v>4</v>
       </c>
@@ -60602,11 +60432,8 @@
       <c r="G819">
         <v>1.0520812706250384</v>
       </c>
-      <c r="H819">
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="820" spans="1:8">
+    </row>
+    <row r="820" spans="1:7">
       <c r="A820" t="s">
         <v>4</v>
       </c>
@@ -60625,11 +60452,8 @@
       <c r="G820">
         <v>0.38951091127207282</v>
       </c>
-      <c r="H820">
-        <v>3.7249999999999996</v>
-      </c>
-    </row>
-    <row r="821" spans="1:8">
+    </row>
+    <row r="821" spans="1:7">
       <c r="A821" t="s">
         <v>4</v>
       </c>
@@ -60648,11 +60472,8 @@
       <c r="G821">
         <v>0.43874821936960495</v>
       </c>
-      <c r="H821">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="822" spans="1:8">
+    </row>
+    <row r="822" spans="1:7">
       <c r="A822" t="s">
         <v>4</v>
       </c>
@@ -60671,11 +60492,8 @@
       <c r="G822">
         <v>0.37416573867739411</v>
       </c>
-      <c r="H822">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="823" spans="1:8">
+    </row>
+    <row r="823" spans="1:7">
       <c r="A823" t="s">
         <v>4</v>
       </c>
@@ -60694,11 +60512,8 @@
       <c r="G823">
         <v>1.0825317547305451</v>
       </c>
-      <c r="H823">
-        <v>12.55</v>
-      </c>
-    </row>
-    <row r="824" spans="1:8">
+    </row>
+    <row r="824" spans="1:7">
       <c r="A824" t="s">
         <v>4</v>
       </c>
@@ -60717,11 +60532,8 @@
       <c r="G824">
         <v>0.20463381929681126</v>
       </c>
-      <c r="H824">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="825" spans="1:8">
+    </row>
+    <row r="825" spans="1:7">
       <c r="A825" t="s">
         <v>4</v>
       </c>
@@ -60740,11 +60552,8 @@
       <c r="G825">
         <v>0.57268555944776545</v>
       </c>
-      <c r="H825">
-        <v>8.375</v>
-      </c>
-    </row>
-    <row r="826" spans="1:8">
+    </row>
+    <row r="826" spans="1:7">
       <c r="A826" t="s">
         <v>4</v>
       </c>
@@ -60763,11 +60572,8 @@
       <c r="G826">
         <v>0.80738776309775961</v>
       </c>
-      <c r="H826">
-        <v>12.95</v>
-      </c>
-    </row>
-    <row r="827" spans="1:8">
+    </row>
+    <row r="827" spans="1:7">
       <c r="A827" t="s">
         <v>4</v>
       </c>
@@ -60786,11 +60592,8 @@
       <c r="G827">
         <v>0.81729355191387199</v>
       </c>
-      <c r="H827">
-        <v>14.825000000000001</v>
-      </c>
-    </row>
-    <row r="828" spans="1:8">
+    </row>
+    <row r="828" spans="1:7">
       <c r="A828" t="s">
         <v>4</v>
       </c>
@@ -60809,11 +60612,8 @@
       <c r="G828">
         <v>0.12247448713915901</v>
       </c>
-      <c r="H828">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="829" spans="1:8">
+    </row>
+    <row r="829" spans="1:7">
       <c r="A829" t="s">
         <v>4</v>
       </c>
@@ -60832,11 +60632,8 @@
       <c r="G829">
         <v>1.0606601717798247</v>
       </c>
-      <c r="H829">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="830" spans="1:8">
+    </row>
+    <row r="830" spans="1:7">
       <c r="A830" t="s">
         <v>4</v>
       </c>
@@ -60855,11 +60652,8 @@
       <c r="G830">
         <v>0.36314597615834865</v>
       </c>
-      <c r="H830">
-        <v>13.05</v>
-      </c>
-    </row>
-    <row r="831" spans="1:8">
+    </row>
+    <row r="831" spans="1:7">
       <c r="A831" t="s">
         <v>4</v>
       </c>
@@ -60877,9 +60671,6 @@
       </c>
       <c r="G831">
         <v>1.6618889854620265</v>
-      </c>
-      <c r="H831">
-        <v>13.75</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Validation/Mungbean/ObservedData.xlsx
+++ b/Tests/Validation/Mungbean/ObservedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Tests\Validation\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5173A-B973-4F64-B98A-50B8093E17AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47372824-1F46-4632-9E0C-E41C814CE74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
   </bookViews>
   <sheets>
     <sheet name="PlantBiomassObserved" sheetId="1" r:id="rId1"/>
@@ -11690,9 +11690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEDAAD-4E07-4543-B9D3-A0ED902D4CED}">
   <dimension ref="A1:Y350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13897,7 +13897,7 @@
         <v>2.3397366242902198E-2</v>
       </c>
       <c r="M116">
-        <v>1.3268921693790601</v>
+        <v>1.3268921693790601E-2</v>
       </c>
       <c r="O116">
         <v>1.64</v>
@@ -13940,7 +13940,7 @@
         <v>2.09063559152801E-2</v>
       </c>
       <c r="M118">
-        <v>0.74915680935835005</v>
+        <v>7.4915680935835E-3</v>
       </c>
       <c r="N118">
         <v>1.34</v>
@@ -14009,7 +14009,7 @@
         <v>5.8070804601500206E-3</v>
       </c>
       <c r="M121">
-        <v>0.72617478594870699</v>
+        <v>7.2617478594870699E-3</v>
       </c>
       <c r="N121">
         <v>0.05</v>
@@ -14147,7 +14147,7 @@
         <v>2.6619619755933299E-2</v>
       </c>
       <c r="M127">
-        <v>1.0611791147513101</v>
+        <v>1.06117911475131E-2</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -14201,7 +14201,7 @@
         <v>2.3931002405333798E-2</v>
       </c>
       <c r="M130">
-        <v>0.71216780500627697</v>
+        <v>7.1216780500627701E-3</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -14273,7 +14273,7 @@
         <v>5.0079315094014995E-3</v>
       </c>
       <c r="M133">
-        <v>0.63402367452461605</v>
+        <v>6.3402367452461599E-3</v>
       </c>
       <c r="N133">
         <v>0.06</v>
@@ -14820,7 +14820,7 @@
         <v>3.8998614817991897E-2</v>
       </c>
       <c r="M162">
-        <v>1.04865866816094</v>
+        <v>1.04865866816094E-2</v>
       </c>
       <c r="N162">
         <v>0.65173658005603297</v>
@@ -14857,7 +14857,7 @@
         <v>3.7200340050551305E-2</v>
       </c>
       <c r="M164">
-        <v>1.28319778515427</v>
+        <v>1.2831977851542701E-2</v>
       </c>
       <c r="O164">
         <v>0.83726743131286296</v>
@@ -14926,7 +14926,7 @@
         <v>1.25077373019148E-2</v>
       </c>
       <c r="M167">
-        <v>1.1429314498652401</v>
+        <v>1.14293144986524E-2</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -15075,7 +15075,7 @@
         <v>1.6483146568219798E-2</v>
       </c>
       <c r="M174">
-        <v>1.1585856864075199</v>
+        <v>1.1585856864075201E-2</v>
       </c>
       <c r="P174">
         <v>1.0698015088257999</v>
@@ -15098,7 +15098,7 @@
         <v>3.9166384275492502E-2</v>
       </c>
       <c r="M175">
-        <v>1.59607925952851</v>
+        <v>1.59607925952851E-2</v>
       </c>
       <c r="N175">
         <v>0.45543104079679902</v>
@@ -15195,7 +15195,7 @@
         <v>3.6789929035738099E-2</v>
       </c>
       <c r="M180">
-        <v>1.25521434555719</v>
+        <v>1.25521434555719E-2</v>
       </c>
       <c r="N180">
         <v>5.2003222734835902E-2</v>
@@ -49089,7 +49089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BE5525-9C9B-4599-A191-AEACAF439893}">
   <dimension ref="A1:H831"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>

--- a/Tests/Validation/Mungbean/ObservedData.xlsx
+++ b/Tests/Validation/Mungbean/ObservedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98976905-E26D-4E1D-941A-CDEDCD224005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B01E149-1D03-4811-BD5E-37D3CAE2ED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{9FA297CA-29B6-4A83-B4E5-4BA784BC781A}"/>
   </bookViews>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D7DBC0-8FFD-4004-98F0-2F6AD6B427E8}">
   <dimension ref="A1:W442"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11690,7 +11690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12219,9 +12219,6 @@
       </c>
       <c r="E25">
         <v>12.58</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
       </c>
       <c r="H25">
         <v>4.7400000000000005E-2</v>
